--- a/simulation results/CI results.xlsx
+++ b/simulation results/CI results.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xijuan/local-fit-indices2/simulation results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E979B18D-F53E-8945-9D95-8B3F03371342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8BD59B-302C-0547-9D87-3B617FF379A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{98DFA7B3-F062-B349-9182-48BD3FB1DF62}"/>
+    <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{98DFA7B3-F062-B349-9182-48BD3FB1DF62}"/>
   </bookViews>
   <sheets>
     <sheet name="RMSEA orig" sheetId="1" r:id="rId1"/>
     <sheet name="RMSEA high" sheetId="2" r:id="rId2"/>
+    <sheet name="SRMR orig" sheetId="3" r:id="rId3"/>
+    <sheet name="SRMR high" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="15">
   <si>
     <t>$n150</t>
   </si>
@@ -1017,7 +1019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C0D6F3-DF56-CB4B-8B63-EE9A098F541C}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
@@ -1593,4 +1595,1162 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7461B5-2DD4-5448-A167-FD7595772993}">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>0.1175162</v>
+      </c>
+      <c r="C3">
+        <v>0.43851129999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.55440940000000005</v>
+      </c>
+      <c r="E3">
+        <v>0.60133499999999995</v>
+      </c>
+      <c r="F3">
+        <v>0.59000810000000004</v>
+      </c>
+      <c r="G3">
+        <v>0.59567150000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>0.87297729999999996</v>
+      </c>
+      <c r="C4">
+        <v>0.96278319999999995</v>
+      </c>
+      <c r="D4">
+        <v>0.91646439999999996</v>
+      </c>
+      <c r="E4">
+        <v>0.89583330000000005</v>
+      </c>
+      <c r="F4">
+        <v>0.89279940000000002</v>
+      </c>
+      <c r="G4">
+        <v>0.90736249999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>0.94174760000000002</v>
+      </c>
+      <c r="C5">
+        <v>0.98300969999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.95631069999999996</v>
+      </c>
+      <c r="E5">
+        <v>0.91828480000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.92354369999999997</v>
+      </c>
+      <c r="G5">
+        <v>0.92293689999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>0.1175162</v>
+      </c>
+      <c r="C9">
+        <v>0.43851129999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.55440940000000005</v>
+      </c>
+      <c r="E9">
+        <v>0.60133499999999995</v>
+      </c>
+      <c r="F9">
+        <v>0.59000810000000004</v>
+      </c>
+      <c r="G9">
+        <v>0.59567150000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>0.87297729999999996</v>
+      </c>
+      <c r="C10">
+        <v>0.96278319999999995</v>
+      </c>
+      <c r="D10">
+        <v>0.91646439999999996</v>
+      </c>
+      <c r="E10">
+        <v>0.89583330000000005</v>
+      </c>
+      <c r="F10">
+        <v>0.89279940000000002</v>
+      </c>
+      <c r="G10">
+        <v>0.90736249999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>0.94174760000000002</v>
+      </c>
+      <c r="C11">
+        <v>0.98300969999999999</v>
+      </c>
+      <c r="D11">
+        <v>0.95631069999999996</v>
+      </c>
+      <c r="E11">
+        <v>0.91828480000000001</v>
+      </c>
+      <c r="F11">
+        <v>0.92354369999999997</v>
+      </c>
+      <c r="G11">
+        <v>0.92293689999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>0.11113339999999999</v>
+      </c>
+      <c r="C15">
+        <v>0.50640770000000002</v>
+      </c>
+      <c r="D15">
+        <v>0.57949539999999999</v>
+      </c>
+      <c r="E15">
+        <v>0.60652779999999995</v>
+      </c>
+      <c r="F15">
+        <v>0.59010810000000002</v>
+      </c>
+      <c r="G15">
+        <v>0.59251100000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>0.87244690000000003</v>
+      </c>
+      <c r="C16">
+        <v>0.9595515</v>
+      </c>
+      <c r="D16">
+        <v>0.8992791</v>
+      </c>
+      <c r="E16">
+        <v>0.92190629999999996</v>
+      </c>
+      <c r="F16">
+        <v>0.9014818</v>
+      </c>
+      <c r="G16">
+        <v>0.91950339999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>0.91810170000000002</v>
+      </c>
+      <c r="C17">
+        <v>0.9757709</v>
+      </c>
+      <c r="D17">
+        <v>0.91589909999999997</v>
+      </c>
+      <c r="E17">
+        <v>0.9389267</v>
+      </c>
+      <c r="F17">
+        <v>0.92010409999999998</v>
+      </c>
+      <c r="G17">
+        <v>0.9419303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>0.1186</v>
+      </c>
+      <c r="C21">
+        <v>0.55659999999999998</v>
+      </c>
+      <c r="D21">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="E21">
+        <v>0.5988</v>
+      </c>
+      <c r="F21">
+        <v>0.59819999999999995</v>
+      </c>
+      <c r="G21">
+        <v>0.57440000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>0.87439999999999996</v>
+      </c>
+      <c r="C22">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="D22">
+        <v>0.92120000000000002</v>
+      </c>
+      <c r="E22">
+        <v>0.92359999999999998</v>
+      </c>
+      <c r="F22">
+        <v>0.91279999999999994</v>
+      </c>
+      <c r="G22">
+        <v>0.9204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="C23">
+        <v>0.96560000000000001</v>
+      </c>
+      <c r="D23">
+        <v>0.93940000000000001</v>
+      </c>
+      <c r="E23">
+        <v>0.94220000000000004</v>
+      </c>
+      <c r="F23">
+        <v>0.93240000000000001</v>
+      </c>
+      <c r="G23">
+        <v>0.93979999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27">
+        <v>0.12139999999999999</v>
+      </c>
+      <c r="C27">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="D27">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="E27">
+        <v>0.60040000000000004</v>
+      </c>
+      <c r="F27">
+        <v>0.59919999999999995</v>
+      </c>
+      <c r="G27">
+        <v>0.58399999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28">
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="C28">
+        <v>0.89559999999999995</v>
+      </c>
+      <c r="D28">
+        <v>0.92179999999999995</v>
+      </c>
+      <c r="E28">
+        <v>0.92479999999999996</v>
+      </c>
+      <c r="F28">
+        <v>0.91080000000000005</v>
+      </c>
+      <c r="G28">
+        <v>0.91979999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <v>0.87980000000000003</v>
+      </c>
+      <c r="C29">
+        <v>0.91420000000000001</v>
+      </c>
+      <c r="D29">
+        <v>0.93779999999999997</v>
+      </c>
+      <c r="E29">
+        <v>0.94379999999999997</v>
+      </c>
+      <c r="F29">
+        <v>0.93259999999999998</v>
+      </c>
+      <c r="G29">
+        <v>0.93940000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <v>0.1172</v>
+      </c>
+      <c r="C33">
+        <v>0.56079999999999997</v>
+      </c>
+      <c r="D33">
+        <v>0.61980000000000002</v>
+      </c>
+      <c r="E33">
+        <v>0.5978</v>
+      </c>
+      <c r="F33">
+        <v>0.5968</v>
+      </c>
+      <c r="G33">
+        <v>0.59519999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34">
+        <v>0.86619999999999997</v>
+      </c>
+      <c r="C34">
+        <v>0.87</v>
+      </c>
+      <c r="D34">
+        <v>0.92520000000000002</v>
+      </c>
+      <c r="E34">
+        <v>0.92079999999999995</v>
+      </c>
+      <c r="F34">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="G34">
+        <v>0.92079999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35">
+        <v>0.88180000000000003</v>
+      </c>
+      <c r="C35">
+        <v>0.88719999999999999</v>
+      </c>
+      <c r="D35">
+        <v>0.94140000000000001</v>
+      </c>
+      <c r="E35">
+        <v>0.93979999999999997</v>
+      </c>
+      <c r="F35">
+        <v>0.93259999999999998</v>
+      </c>
+      <c r="G35">
+        <v>0.94279999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065043F0-EFDA-7C4B-A63F-CB8FBD2FA76F}">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="C3">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="D3">
+        <v>0.8488</v>
+      </c>
+      <c r="E3">
+        <v>0.8266</v>
+      </c>
+      <c r="F3">
+        <v>0.83720000000000006</v>
+      </c>
+      <c r="G3">
+        <v>0.82679999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>0.87080000000000002</v>
+      </c>
+      <c r="C4">
+        <v>0.95420000000000005</v>
+      </c>
+      <c r="D4">
+        <v>0.91720000000000002</v>
+      </c>
+      <c r="E4">
+        <v>0.92020000000000002</v>
+      </c>
+      <c r="F4">
+        <v>0.9224</v>
+      </c>
+      <c r="G4">
+        <v>0.92300000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>0.87260000000000004</v>
+      </c>
+      <c r="C5">
+        <v>0.95679999999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.92220000000000002</v>
+      </c>
+      <c r="E5">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="F5">
+        <v>0.92279999999999995</v>
+      </c>
+      <c r="G5">
+        <v>0.92859999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="C9">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="D9">
+        <v>0.8488</v>
+      </c>
+      <c r="E9">
+        <v>0.8266</v>
+      </c>
+      <c r="F9">
+        <v>0.83720000000000006</v>
+      </c>
+      <c r="G9">
+        <v>0.82679999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>0.87080000000000002</v>
+      </c>
+      <c r="C10">
+        <v>0.95420000000000005</v>
+      </c>
+      <c r="D10">
+        <v>0.91720000000000002</v>
+      </c>
+      <c r="E10">
+        <v>0.92020000000000002</v>
+      </c>
+      <c r="F10">
+        <v>0.9224</v>
+      </c>
+      <c r="G10">
+        <v>0.92300000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>0.87260000000000004</v>
+      </c>
+      <c r="C11">
+        <v>0.95679999999999998</v>
+      </c>
+      <c r="D11">
+        <v>0.92220000000000002</v>
+      </c>
+      <c r="E11">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="F11">
+        <v>0.92279999999999995</v>
+      </c>
+      <c r="G11">
+        <v>0.92859999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>0.57140000000000002</v>
+      </c>
+      <c r="C15">
+        <v>0.7954</v>
+      </c>
+      <c r="D15">
+        <v>0.84519999999999995</v>
+      </c>
+      <c r="E15">
+        <v>0.83320000000000005</v>
+      </c>
+      <c r="F15">
+        <v>0.8296</v>
+      </c>
+      <c r="G15">
+        <v>0.82220000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>0.87539999999999996</v>
+      </c>
+      <c r="C16">
+        <v>0.90139999999999998</v>
+      </c>
+      <c r="D16">
+        <v>0.9284</v>
+      </c>
+      <c r="E16">
+        <v>0.92420000000000002</v>
+      </c>
+      <c r="F16">
+        <v>0.92</v>
+      </c>
+      <c r="G16">
+        <v>0.9204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>0.875</v>
+      </c>
+      <c r="C17">
+        <v>0.9032</v>
+      </c>
+      <c r="D17">
+        <v>0.93159999999999998</v>
+      </c>
+      <c r="E17">
+        <v>0.92959999999999998</v>
+      </c>
+      <c r="F17">
+        <v>0.92459999999999998</v>
+      </c>
+      <c r="G17">
+        <v>0.9264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>0.57920000000000005</v>
+      </c>
+      <c r="C21">
+        <v>0.78720000000000001</v>
+      </c>
+      <c r="D21">
+        <v>0.84179999999999999</v>
+      </c>
+      <c r="E21">
+        <v>0.81440000000000001</v>
+      </c>
+      <c r="F21">
+        <v>0.82040000000000002</v>
+      </c>
+      <c r="G21">
+        <v>0.81459999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>0.86819999999999997</v>
+      </c>
+      <c r="C22">
+        <v>0.87180000000000002</v>
+      </c>
+      <c r="D22">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="E22">
+        <v>0.91779999999999995</v>
+      </c>
+      <c r="F22">
+        <v>0.91459999999999997</v>
+      </c>
+      <c r="G22">
+        <v>0.91859999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>0.87260000000000004</v>
+      </c>
+      <c r="C23">
+        <v>0.877</v>
+      </c>
+      <c r="D23">
+        <v>0.92720000000000002</v>
+      </c>
+      <c r="E23">
+        <v>0.92359999999999998</v>
+      </c>
+      <c r="F23">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="G23">
+        <v>0.92679999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="C27">
+        <v>0.79379999999999995</v>
+      </c>
+      <c r="D27">
+        <v>0.83460000000000001</v>
+      </c>
+      <c r="E27">
+        <v>0.81759999999999999</v>
+      </c>
+      <c r="F27">
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="G27">
+        <v>0.80579999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28">
+        <v>0.85960000000000003</v>
+      </c>
+      <c r="C28">
+        <v>0.88780000000000003</v>
+      </c>
+      <c r="D28">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="E28">
+        <v>0.91920000000000002</v>
+      </c>
+      <c r="F28">
+        <v>0.91679999999999995</v>
+      </c>
+      <c r="G28">
+        <v>0.91520000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <v>0.86040000000000005</v>
+      </c>
+      <c r="C29">
+        <v>0.89239999999999997</v>
+      </c>
+      <c r="D29">
+        <v>0.92759999999999998</v>
+      </c>
+      <c r="E29">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="F29">
+        <v>0.9234</v>
+      </c>
+      <c r="G29">
+        <v>0.92379999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="C33">
+        <v>0.79020000000000001</v>
+      </c>
+      <c r="D33">
+        <v>0.82820000000000005</v>
+      </c>
+      <c r="E33">
+        <v>0.82079999999999997</v>
+      </c>
+      <c r="F33">
+        <v>0.82179999999999997</v>
+      </c>
+      <c r="G33">
+        <v>0.80959999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="C34">
+        <v>0.89559999999999995</v>
+      </c>
+      <c r="D34">
+        <v>0.91879999999999995</v>
+      </c>
+      <c r="E34">
+        <v>0.91379999999999995</v>
+      </c>
+      <c r="F34">
+        <v>0.91979999999999995</v>
+      </c>
+      <c r="G34">
+        <v>0.91900000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35">
+        <v>0.86160000000000003</v>
+      </c>
+      <c r="C35">
+        <v>0.89780000000000004</v>
+      </c>
+      <c r="D35">
+        <v>0.92559999999999998</v>
+      </c>
+      <c r="E35">
+        <v>0.92179999999999995</v>
+      </c>
+      <c r="F35">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="G35">
+        <v>0.92759999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/simulation results/CI results.xlsx
+++ b/simulation results/CI results.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xijuan/local-fit-indices2/simulation results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8BD59B-302C-0547-9D87-3B617FF379A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B6C5AD-5144-AB41-BAB0-FDA7B0FD9D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{98DFA7B3-F062-B349-9182-48BD3FB1DF62}"/>
+    <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" xr2:uid="{98DFA7B3-F062-B349-9182-48BD3FB1DF62}"/>
   </bookViews>
   <sheets>
     <sheet name="RMSEA orig" sheetId="1" r:id="rId1"/>
     <sheet name="RMSEA high" sheetId="2" r:id="rId2"/>
     <sheet name="SRMR orig" sheetId="3" r:id="rId3"/>
     <sheet name="SRMR high" sheetId="4" r:id="rId4"/>
+    <sheet name="CFI orig" sheetId="5" r:id="rId5"/>
+    <sheet name="CFI high" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="15">
   <si>
     <t>$n150</t>
   </si>
@@ -435,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FA8ABE-56A6-624F-AD7E-E09DC5A56F8D}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:W35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -446,12 +448,18 @@
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -470,8 +478,44 @@
       <c r="G2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -493,8 +537,50 @@
       <c r="G3">
         <v>0.37378640000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>0.87661811999999995</v>
+      </c>
+      <c r="K3">
+        <v>0.80157767000000002</v>
+      </c>
+      <c r="L3">
+        <v>0.60760517999999997</v>
+      </c>
+      <c r="M3">
+        <v>0.58252426999999996</v>
+      </c>
+      <c r="N3">
+        <v>0.62580910000000001</v>
+      </c>
+      <c r="O3">
+        <v>0.57139967999999997</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3">
+        <v>8.0906149999999998E-4</v>
+      </c>
+      <c r="S3">
+        <v>1.4158580000000001E-3</v>
+      </c>
+      <c r="T3">
+        <v>4.0453070000000001E-2</v>
+      </c>
+      <c r="U3">
+        <v>4.2677989999999999E-2</v>
+      </c>
+      <c r="V3">
+        <v>2.6294499999999998E-2</v>
+      </c>
+      <c r="W3">
+        <v>5.4813920000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -516,8 +602,50 @@
       <c r="G4">
         <v>0.82301780000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4">
+        <v>9.9919090000000002E-2</v>
+      </c>
+      <c r="K4">
+        <v>8.6569579999999993E-2</v>
+      </c>
+      <c r="L4">
+        <v>0.12176375</v>
+      </c>
+      <c r="M4">
+        <v>0.11933657</v>
+      </c>
+      <c r="N4">
+        <v>0.1102346</v>
+      </c>
+      <c r="O4">
+        <v>0.12014563</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4">
+        <v>5.8859223299999999E-2</v>
+      </c>
+      <c r="S4">
+        <v>5.9466019000000002E-2</v>
+      </c>
+      <c r="T4">
+        <v>5.400485E-2</v>
+      </c>
+      <c r="U4">
+        <v>4.9352750000000001E-2</v>
+      </c>
+      <c r="V4">
+        <v>4.773463E-2</v>
+      </c>
+      <c r="W4">
+        <v>5.6836570000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -539,13 +667,61 @@
       <c r="G5">
         <v>0.85093039999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5">
+        <v>6.8972489999999997E-2</v>
+      </c>
+      <c r="K5">
+        <v>5.6027510000000003E-2</v>
+      </c>
+      <c r="L5">
+        <v>8.4546930000000006E-2</v>
+      </c>
+      <c r="M5">
+        <v>7.9490290000000005E-2</v>
+      </c>
+      <c r="N5">
+        <v>7.3017799999999994E-2</v>
+      </c>
+      <c r="O5">
+        <v>8.6569579999999993E-2</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5">
+        <v>7.3826860800000005E-2</v>
+      </c>
+      <c r="S5">
+        <v>7.2613268999999994E-2</v>
+      </c>
+      <c r="T5">
+        <v>5.9668279999999997E-2</v>
+      </c>
+      <c r="U5">
+        <v>5.4611649999999998E-2</v>
+      </c>
+      <c r="V5">
+        <v>5.5825239999999998E-2</v>
+      </c>
+      <c r="W5">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -564,8 +740,44 @@
       <c r="G8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" t="s">
+        <v>11</v>
+      </c>
+      <c r="R8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" t="s">
+        <v>8</v>
+      </c>
+      <c r="U8" t="s">
+        <v>9</v>
+      </c>
+      <c r="V8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -587,8 +799,50 @@
       <c r="G9">
         <v>0.37378640000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9">
+        <v>0.87661811999999995</v>
+      </c>
+      <c r="K9">
+        <v>0.80157767000000002</v>
+      </c>
+      <c r="L9">
+        <v>0.60760517999999997</v>
+      </c>
+      <c r="M9">
+        <v>0.58252426999999996</v>
+      </c>
+      <c r="N9">
+        <v>0.62580910000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.57139967999999997</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9">
+        <v>8.0906149999999998E-4</v>
+      </c>
+      <c r="S9">
+        <v>1.4158580000000001E-3</v>
+      </c>
+      <c r="T9">
+        <v>4.0453070000000001E-2</v>
+      </c>
+      <c r="U9">
+        <v>4.2677989999999999E-2</v>
+      </c>
+      <c r="V9">
+        <v>2.6294499999999998E-2</v>
+      </c>
+      <c r="W9">
+        <v>5.4813920000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -610,8 +864,50 @@
       <c r="G10">
         <v>0.82301780000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10">
+        <v>9.9919090000000002E-2</v>
+      </c>
+      <c r="K10">
+        <v>8.6569579999999993E-2</v>
+      </c>
+      <c r="L10">
+        <v>0.12176375</v>
+      </c>
+      <c r="M10">
+        <v>0.11933657</v>
+      </c>
+      <c r="N10">
+        <v>0.1102346</v>
+      </c>
+      <c r="O10">
+        <v>0.12014563</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>13</v>
+      </c>
+      <c r="R10">
+        <v>5.8859223299999999E-2</v>
+      </c>
+      <c r="S10">
+        <v>5.9466019000000002E-2</v>
+      </c>
+      <c r="T10">
+        <v>5.400485E-2</v>
+      </c>
+      <c r="U10">
+        <v>4.9352750000000001E-2</v>
+      </c>
+      <c r="V10">
+        <v>4.773463E-2</v>
+      </c>
+      <c r="W10">
+        <v>5.6836570000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -633,13 +929,61 @@
       <c r="G11">
         <v>0.85093039999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11">
+        <v>6.8972489999999997E-2</v>
+      </c>
+      <c r="K11">
+        <v>5.6027510000000003E-2</v>
+      </c>
+      <c r="L11">
+        <v>8.4546930000000006E-2</v>
+      </c>
+      <c r="M11">
+        <v>7.9490290000000005E-2</v>
+      </c>
+      <c r="N11">
+        <v>7.3017799999999994E-2</v>
+      </c>
+      <c r="O11">
+        <v>8.6569579999999993E-2</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R11">
+        <v>7.3826860800000005E-2</v>
+      </c>
+      <c r="S11">
+        <v>7.2613268999999994E-2</v>
+      </c>
+      <c r="T11">
+        <v>5.9668279999999997E-2</v>
+      </c>
+      <c r="U11">
+        <v>5.4611649999999998E-2</v>
+      </c>
+      <c r="V11">
+        <v>5.5825239999999998E-2</v>
+      </c>
+      <c r="W11">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>6</v>
       </c>
@@ -658,8 +1002,44 @@
       <c r="G14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" t="s">
+        <v>11</v>
+      </c>
+      <c r="R14" t="s">
+        <v>6</v>
+      </c>
+      <c r="S14" t="s">
+        <v>7</v>
+      </c>
+      <c r="T14" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" t="s">
+        <v>9</v>
+      </c>
+      <c r="V14" t="s">
+        <v>10</v>
+      </c>
+      <c r="W14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -681,8 +1061,50 @@
       <c r="G15">
         <v>0.42731279999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15">
+        <v>0.86663997000000004</v>
+      </c>
+      <c r="K15">
+        <v>0.73488186</v>
+      </c>
+      <c r="L15">
+        <v>0.51702042000000004</v>
+      </c>
+      <c r="M15">
+        <v>0.50680817</v>
+      </c>
+      <c r="N15">
+        <v>0.53504205000000005</v>
+      </c>
+      <c r="O15">
+        <v>0.4969964</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>12</v>
+      </c>
+      <c r="R15">
+        <v>6.0072089999999999E-4</v>
+      </c>
+      <c r="S15">
+        <v>5.2062469999999998E-3</v>
+      </c>
+      <c r="T15">
+        <v>5.6668000000000003E-2</v>
+      </c>
+      <c r="U15">
+        <v>6.2675209999999995E-2</v>
+      </c>
+      <c r="V15">
+        <v>4.7657190000000002E-2</v>
+      </c>
+      <c r="W15">
+        <v>7.5690830000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -704,8 +1126,50 @@
       <c r="G16">
         <v>0.85002</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16">
+        <v>7.889467E-2</v>
+      </c>
+      <c r="K16">
+        <v>6.4076889999999997E-2</v>
+      </c>
+      <c r="L16">
+        <v>9.4913899999999995E-2</v>
+      </c>
+      <c r="M16">
+        <v>9.1710050000000001E-2</v>
+      </c>
+      <c r="N16">
+        <v>8.0696840000000006E-2</v>
+      </c>
+      <c r="O16">
+        <v>9.5915100000000003E-2</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>13</v>
+      </c>
+      <c r="R16">
+        <v>5.7068482199999999E-2</v>
+      </c>
+      <c r="S16">
+        <v>5.8670404000000002E-2</v>
+      </c>
+      <c r="T16">
+        <v>4.9659590000000003E-2</v>
+      </c>
+      <c r="U16">
+        <v>4.7056470000000003E-2</v>
+      </c>
+      <c r="V16">
+        <v>5.1461750000000001E-2</v>
+      </c>
+      <c r="W16">
+        <v>5.4064880000000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -727,13 +1191,61 @@
       <c r="G17">
         <v>0.87745289999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17">
+        <v>5.6067279999999997E-2</v>
+      </c>
+      <c r="K17">
+        <v>4.245094E-2</v>
+      </c>
+      <c r="L17">
+        <v>7.088506E-2</v>
+      </c>
+      <c r="M17">
+        <v>6.5879049999999995E-2</v>
+      </c>
+      <c r="N17">
+        <v>5.6067279999999997E-2</v>
+      </c>
+      <c r="O17">
+        <v>6.7280740000000006E-2</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>14</v>
+      </c>
+      <c r="R17">
+        <v>6.2875450499999999E-2</v>
+      </c>
+      <c r="S17">
+        <v>6.5678815000000002E-2</v>
+      </c>
+      <c r="T17">
+        <v>5.1261510000000003E-2</v>
+      </c>
+      <c r="U17">
+        <v>4.8458149999999998E-2</v>
+      </c>
+      <c r="V17">
+        <v>5.2863439999999998E-2</v>
+      </c>
+      <c r="W17">
+        <v>5.5266320000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>6</v>
       </c>
@@ -752,8 +1264,44 @@
       <c r="G20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" t="s">
+        <v>11</v>
+      </c>
+      <c r="R20" t="s">
+        <v>6</v>
+      </c>
+      <c r="S20" t="s">
+        <v>7</v>
+      </c>
+      <c r="T20" t="s">
+        <v>8</v>
+      </c>
+      <c r="U20" t="s">
+        <v>9</v>
+      </c>
+      <c r="V20" t="s">
+        <v>10</v>
+      </c>
+      <c r="W20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -775,8 +1323,50 @@
       <c r="G21">
         <v>0.4698</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21">
+        <v>0.8478</v>
+      </c>
+      <c r="K21">
+        <v>0.63719999999999999</v>
+      </c>
+      <c r="L21">
+        <v>0.437</v>
+      </c>
+      <c r="M21">
+        <v>0.42220000000000002</v>
+      </c>
+      <c r="N21">
+        <v>0.45019999999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.41439999999999999</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>12</v>
+      </c>
+      <c r="R21">
+        <v>1.4E-3</v>
+      </c>
+      <c r="S21">
+        <v>1.32E-2</v>
+      </c>
+      <c r="T21">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="U21">
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="V21">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="W21">
+        <v>0.1158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -798,8 +1388,50 @@
       <c r="G22">
         <v>0.85680000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22">
+        <v>6.8599999999999994E-2</v>
+      </c>
+      <c r="K22">
+        <v>5.0599999999999999E-2</v>
+      </c>
+      <c r="L22">
+        <v>7.3400000000000007E-2</v>
+      </c>
+      <c r="M22">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="N22">
+        <v>6.08E-2</v>
+      </c>
+      <c r="O22">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>13</v>
+      </c>
+      <c r="R22">
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="S22">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="T22">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="U22">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="V22">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="W22">
+        <v>6.0199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -821,13 +1453,61 @@
       <c r="G23">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23">
+        <v>5.6800000000000003E-2</v>
+      </c>
+      <c r="K23">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="L23">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="M23">
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="N23">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="O23">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>14</v>
+      </c>
+      <c r="R23">
+        <v>5.96E-2</v>
+      </c>
+      <c r="S23">
+        <v>5.8200000000000002E-2</v>
+      </c>
+      <c r="T23">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="U23">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="V23">
+        <v>5.0200000000000002E-2</v>
+      </c>
+      <c r="W23">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I25" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>6</v>
       </c>
@@ -846,8 +1526,44 @@
       <c r="G26" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J26" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" t="s">
+        <v>9</v>
+      </c>
+      <c r="N26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O26" t="s">
+        <v>11</v>
+      </c>
+      <c r="R26" t="s">
+        <v>6</v>
+      </c>
+      <c r="S26" t="s">
+        <v>7</v>
+      </c>
+      <c r="T26" t="s">
+        <v>8</v>
+      </c>
+      <c r="U26" t="s">
+        <v>9</v>
+      </c>
+      <c r="V26" t="s">
+        <v>10</v>
+      </c>
+      <c r="W26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -869,8 +1585,50 @@
       <c r="G27">
         <v>0.50039999999999996</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27">
+        <v>0.84240000000000004</v>
+      </c>
+      <c r="K27">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="L27">
+        <v>0.38040000000000002</v>
+      </c>
+      <c r="M27">
+        <v>0.37519999999999998</v>
+      </c>
+      <c r="N27">
+        <v>0.3916</v>
+      </c>
+      <c r="O27">
+        <v>0.36720000000000003</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>12</v>
+      </c>
+      <c r="R27">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="S27">
+        <v>2.52E-2</v>
+      </c>
+      <c r="T27">
+        <v>0.115</v>
+      </c>
+      <c r="U27">
+        <v>0.1232</v>
+      </c>
+      <c r="V27">
+        <v>0.1066</v>
+      </c>
+      <c r="W27">
+        <v>0.13239999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -892,8 +1650,50 @@
       <c r="G28">
         <v>0.86380000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K28">
+        <v>4.36E-2</v>
+      </c>
+      <c r="L28">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="M28">
+        <v>6.6600000000000006E-2</v>
+      </c>
+      <c r="N28">
+        <v>6.6600000000000006E-2</v>
+      </c>
+      <c r="O28">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>13</v>
+      </c>
+      <c r="R28">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="S28">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="T28">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="U28">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="V28">
+        <v>5.04E-2</v>
+      </c>
+      <c r="W28">
+        <v>6.1400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -915,13 +1715,61 @@
       <c r="G29">
         <v>0.87919999999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="K29">
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="L29">
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="M29">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="N29">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="O29">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>14</v>
+      </c>
+      <c r="R29">
+        <v>5.7799999999999997E-2</v>
+      </c>
+      <c r="S29">
+        <v>5.4800000000000001E-2</v>
+      </c>
+      <c r="T29">
+        <v>5.62E-2</v>
+      </c>
+      <c r="U29">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="V29">
+        <v>5.0200000000000002E-2</v>
+      </c>
+      <c r="W29">
+        <v>5.96E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I31" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>6</v>
       </c>
@@ -940,8 +1788,44 @@
       <c r="G32" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J32" t="s">
+        <v>6</v>
+      </c>
+      <c r="K32" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" t="s">
+        <v>9</v>
+      </c>
+      <c r="N32" t="s">
+        <v>10</v>
+      </c>
+      <c r="O32" t="s">
+        <v>11</v>
+      </c>
+      <c r="R32" t="s">
+        <v>6</v>
+      </c>
+      <c r="S32" t="s">
+        <v>7</v>
+      </c>
+      <c r="T32" t="s">
+        <v>8</v>
+      </c>
+      <c r="U32" t="s">
+        <v>9</v>
+      </c>
+      <c r="V32" t="s">
+        <v>10</v>
+      </c>
+      <c r="W32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -963,8 +1847,50 @@
       <c r="G33">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I33" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33">
+        <v>0.84740000000000004</v>
+      </c>
+      <c r="K33">
+        <v>0.50339999999999996</v>
+      </c>
+      <c r="L33">
+        <v>0.378</v>
+      </c>
+      <c r="M33">
+        <v>0.36020000000000002</v>
+      </c>
+      <c r="N33">
+        <v>0.38159999999999999</v>
+      </c>
+      <c r="O33">
+        <v>0.3624</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>12</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>3.9E-2</v>
+      </c>
+      <c r="T33">
+        <v>0.12280000000000001</v>
+      </c>
+      <c r="U33">
+        <v>0.13</v>
+      </c>
+      <c r="V33">
+        <v>0.1174</v>
+      </c>
+      <c r="W33">
+        <v>0.1376</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -986,8 +1912,50 @@
       <c r="G34">
         <v>0.87180000000000002</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34">
+        <v>5.74E-2</v>
+      </c>
+      <c r="K34">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="L34">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="M34">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="N34">
+        <v>5.8400000000000001E-2</v>
+      </c>
+      <c r="O34">
+        <v>7.1599999999999997E-2</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>13</v>
+      </c>
+      <c r="R34">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="S34">
+        <v>5.62E-2</v>
+      </c>
+      <c r="T34">
+        <v>5.16E-2</v>
+      </c>
+      <c r="U34">
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="V34">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="W34">
+        <v>5.6599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -1008,6 +1976,48 @@
       </c>
       <c r="G35">
         <v>0.89080000000000004</v>
+      </c>
+      <c r="I35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="K35">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="L35">
+        <v>5.7799999999999997E-2</v>
+      </c>
+      <c r="M35">
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="N35">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="O35">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>14</v>
+      </c>
+      <c r="R35">
+        <v>5.4800000000000001E-2</v>
+      </c>
+      <c r="S35">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="T35">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="U35">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="V35">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="W35">
+        <v>5.2600000000000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2180,7 +3190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065043F0-EFDA-7C4B-A63F-CB8FBD2FA76F}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
@@ -2753,4 +3763,886 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E1234B-4C0A-CD47-B071-86653CE45E06}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>0.99797729999999996</v>
+      </c>
+      <c r="C3">
+        <v>0.99292069999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.93729770000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.89623790000000003</v>
+      </c>
+      <c r="F3">
+        <v>0.92637539999999996</v>
+      </c>
+      <c r="G3">
+        <v>0.88632690000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>0.99817959999999994</v>
+      </c>
+      <c r="C4">
+        <v>0.99433660000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.93830910000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.88733819999999997</v>
+      </c>
+      <c r="F4">
+        <v>0.93042069999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.87419089999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.99797729999999996</v>
+      </c>
+      <c r="C8">
+        <v>0.99292069999999999</v>
+      </c>
+      <c r="D8">
+        <v>0.93729770000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.89623790000000003</v>
+      </c>
+      <c r="F8">
+        <v>0.92637539999999996</v>
+      </c>
+      <c r="G8">
+        <v>0.88632690000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.99817959999999994</v>
+      </c>
+      <c r="C9">
+        <v>0.99433660000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.93830910000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.88733819999999997</v>
+      </c>
+      <c r="F9">
+        <v>0.93042069999999999</v>
+      </c>
+      <c r="G9">
+        <v>0.87419089999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0.99879859999999998</v>
+      </c>
+      <c r="C13">
+        <v>0.99239089999999996</v>
+      </c>
+      <c r="D13">
+        <v>0.9014818</v>
+      </c>
+      <c r="E13">
+        <v>0.88586299999999996</v>
+      </c>
+      <c r="F13">
+        <v>0.89567479999999999</v>
+      </c>
+      <c r="G13">
+        <v>0.8772527</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0.99919899999999995</v>
+      </c>
+      <c r="C14">
+        <v>0.99439330000000004</v>
+      </c>
+      <c r="D14">
+        <v>0.8984782</v>
+      </c>
+      <c r="E14">
+        <v>0.88125750000000003</v>
+      </c>
+      <c r="F14">
+        <v>0.89126950000000005</v>
+      </c>
+      <c r="G14">
+        <v>0.87284740000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>0.998</v>
+      </c>
+      <c r="C18">
+        <v>0.99019999999999997</v>
+      </c>
+      <c r="D18">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="E18">
+        <v>0.88639999999999997</v>
+      </c>
+      <c r="F18">
+        <v>0.88680000000000003</v>
+      </c>
+      <c r="G18">
+        <v>0.87880000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="C19">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="D19">
+        <v>0.88919999999999999</v>
+      </c>
+      <c r="E19">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="F19">
+        <v>0.88439999999999996</v>
+      </c>
+      <c r="G19">
+        <v>0.87719999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="C23">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="D23">
+        <v>0.89219999999999999</v>
+      </c>
+      <c r="E23">
+        <v>0.89339999999999997</v>
+      </c>
+      <c r="F23">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="G23">
+        <v>0.88839999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>0.999</v>
+      </c>
+      <c r="C24">
+        <v>0.97840000000000005</v>
+      </c>
+      <c r="D24">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="E24">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="F24">
+        <v>0.88619999999999999</v>
+      </c>
+      <c r="G24">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="C28">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="D28">
+        <v>0.89559999999999995</v>
+      </c>
+      <c r="E28">
+        <v>0.89039999999999997</v>
+      </c>
+      <c r="F28">
+        <v>0.88319999999999999</v>
+      </c>
+      <c r="G28">
+        <v>0.88700000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="C29">
+        <v>0.9506</v>
+      </c>
+      <c r="D29">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="E29">
+        <v>0.89339999999999997</v>
+      </c>
+      <c r="F29">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="G29">
+        <v>0.88800000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02ADD9EF-6BBF-E642-86B1-D69169E4380E}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>0.99480000000000002</v>
+      </c>
+      <c r="C3">
+        <v>0.98540000000000005</v>
+      </c>
+      <c r="D3">
+        <v>0.87980000000000003</v>
+      </c>
+      <c r="E3">
+        <v>0.88260000000000005</v>
+      </c>
+      <c r="F3">
+        <v>0.88639999999999997</v>
+      </c>
+      <c r="G3">
+        <v>0.87939999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>0.995</v>
+      </c>
+      <c r="C4">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.877</v>
+      </c>
+      <c r="E4">
+        <v>0.87680000000000002</v>
+      </c>
+      <c r="F4">
+        <v>0.87880000000000003</v>
+      </c>
+      <c r="G4">
+        <v>0.86960000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.99480000000000002</v>
+      </c>
+      <c r="C8">
+        <v>0.98540000000000005</v>
+      </c>
+      <c r="D8">
+        <v>0.87980000000000003</v>
+      </c>
+      <c r="E8">
+        <v>0.88260000000000005</v>
+      </c>
+      <c r="F8">
+        <v>0.88639999999999997</v>
+      </c>
+      <c r="G8">
+        <v>0.87939999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.995</v>
+      </c>
+      <c r="C9">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.877</v>
+      </c>
+      <c r="E9">
+        <v>0.87680000000000002</v>
+      </c>
+      <c r="F9">
+        <v>0.87880000000000003</v>
+      </c>
+      <c r="G9">
+        <v>0.86960000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="C13">
+        <v>0.9748</v>
+      </c>
+      <c r="D13">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.88239999999999996</v>
+      </c>
+      <c r="F13">
+        <v>0.88919999999999999</v>
+      </c>
+      <c r="G13">
+        <v>0.88519999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0.995</v>
+      </c>
+      <c r="C14">
+        <v>0.97260000000000002</v>
+      </c>
+      <c r="D14">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="E14">
+        <v>0.88080000000000003</v>
+      </c>
+      <c r="F14">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="G14">
+        <v>0.88239999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="C18">
+        <v>0.90459999999999996</v>
+      </c>
+      <c r="D18">
+        <v>0.8952</v>
+      </c>
+      <c r="E18">
+        <v>0.89459999999999995</v>
+      </c>
+      <c r="F18">
+        <v>0.89080000000000004</v>
+      </c>
+      <c r="G18">
+        <v>0.89900000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>0.998</v>
+      </c>
+      <c r="C19">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="D19">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="E19">
+        <v>0.89439999999999997</v>
+      </c>
+      <c r="F19">
+        <v>0.89159999999999995</v>
+      </c>
+      <c r="G19">
+        <v>0.89639999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="C23">
+        <v>0.8982</v>
+      </c>
+      <c r="D23">
+        <v>0.89419999999999999</v>
+      </c>
+      <c r="E23">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="F23">
+        <v>0.89539999999999997</v>
+      </c>
+      <c r="G23">
+        <v>0.9002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>0.998</v>
+      </c>
+      <c r="C24">
+        <v>0.89659999999999995</v>
+      </c>
+      <c r="D24">
+        <v>0.89439999999999997</v>
+      </c>
+      <c r="E24">
+        <v>0.89380000000000004</v>
+      </c>
+      <c r="F24">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="G24">
+        <v>0.8982</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="C28">
+        <v>0.89580000000000004</v>
+      </c>
+      <c r="D28">
+        <v>0.89739999999999998</v>
+      </c>
+      <c r="E28">
+        <v>0.89659999999999995</v>
+      </c>
+      <c r="F28">
+        <v>0.89859999999999995</v>
+      </c>
+      <c r="G28">
+        <v>0.8962</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <v>0.998</v>
+      </c>
+      <c r="C29">
+        <v>0.89459999999999995</v>
+      </c>
+      <c r="D29">
+        <v>0.8982</v>
+      </c>
+      <c r="E29">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="F29">
+        <v>0.89759999999999995</v>
+      </c>
+      <c r="G29">
+        <v>0.89639999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/simulation results/CI results.xlsx
+++ b/simulation results/CI results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xijuan/local-fit-indices2/simulation results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A35A8E7-153A-1943-859D-9C47ED77C48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F95972B-AEAB-6B4E-9D5A-81D084230622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" activeTab="5" xr2:uid="{98DFA7B3-F062-B349-9182-48BD3FB1DF62}"/>
+    <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" activeTab="7" xr2:uid="{98DFA7B3-F062-B349-9182-48BD3FB1DF62}"/>
   </bookViews>
   <sheets>
     <sheet name="RMSEA orig" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="SRMR high" sheetId="4" r:id="rId4"/>
     <sheet name="CFI orig" sheetId="5" r:id="rId5"/>
     <sheet name="CFI high" sheetId="6" r:id="rId6"/>
+    <sheet name="SRMR orig check values" sheetId="7" r:id="rId7"/>
+    <sheet name="SRMR high check values" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="28">
   <si>
     <t>$n150</t>
   </si>
@@ -95,6 +97,36 @@
   </si>
   <si>
     <t>Coverage Rate</t>
+  </si>
+  <si>
+    <t>k_s.adj.str.exp</t>
+  </si>
+  <si>
+    <t>srmr.adj.str.exp</t>
+  </si>
+  <si>
+    <t>se.adj.str.exp</t>
+  </si>
+  <si>
+    <t>srmr.ci.lower.adj.str.exp</t>
+  </si>
+  <si>
+    <t>srmr.ci.upper.adj.str.exp</t>
+  </si>
+  <si>
+    <t>k_s.adj.str.exp.tri</t>
+  </si>
+  <si>
+    <t>srmr.adj.str.exp.tri</t>
+  </si>
+  <si>
+    <t>se.adj.str.exp.tri</t>
+  </si>
+  <si>
+    <t>srmr.ci.lower.adj.str.exp.tri</t>
+  </si>
+  <si>
+    <t>srmr.ci.upper.adj.str.exp.tri</t>
   </si>
 </sst>
 </file>
@@ -8054,7 +8086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02ADD9EF-6BBF-E642-86B1-D69169E4380E}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2:W30"/>
     </sheetView>
   </sheetViews>
@@ -9256,4 +9288,3100 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE368977-2CDD-A94D-A5D3-1A04D991F8CB}">
+  <dimension ref="A1:G77"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="51.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>0.68187176380000003</v>
+      </c>
+      <c r="C3">
+        <v>0.77130279099999999</v>
+      </c>
+      <c r="D3">
+        <v>0.91192779099999999</v>
+      </c>
+      <c r="E3">
+        <v>0.93602426999999999</v>
+      </c>
+      <c r="F3">
+        <v>0.92126456000000001</v>
+      </c>
+      <c r="G3">
+        <v>0.94831189000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>1.2219457899999999E-2</v>
+      </c>
+      <c r="C4">
+        <v>2.1776699E-2</v>
+      </c>
+      <c r="D4">
+        <v>3.8210963000000001E-2</v>
+      </c>
+      <c r="E4">
+        <v>5.571926E-2</v>
+      </c>
+      <c r="F4">
+        <v>4.8656959999999999E-2</v>
+      </c>
+      <c r="G4">
+        <v>6.7487859999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>7.1524676400000001E-2</v>
+      </c>
+      <c r="C5">
+        <v>4.7302994000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.7608212E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.6343450000000001E-2</v>
+      </c>
+      <c r="F5">
+        <v>2.6518199999999999E-2</v>
+      </c>
+      <c r="G5">
+        <v>2.6674349999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>1.1316748000000001E-3</v>
+      </c>
+      <c r="C6">
+        <v>2.889361E-3</v>
+      </c>
+      <c r="D6">
+        <v>1.0810274999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>1.9755869999999998E-2</v>
+      </c>
+      <c r="F6">
+        <v>1.4897860000000001E-2</v>
+      </c>
+      <c r="G6">
+        <v>2.7450240000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>0.1298535599</v>
+      </c>
+      <c r="C7">
+        <v>9.9590413000000003E-2</v>
+      </c>
+      <c r="D7">
+        <v>8.3617920999999998E-2</v>
+      </c>
+      <c r="E7">
+        <v>9.9060280000000001E-2</v>
+      </c>
+      <c r="F7">
+        <v>9.2279130000000001E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.11135902</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>0.6210653317</v>
+      </c>
+      <c r="C8">
+        <v>0.72418628600000001</v>
+      </c>
+      <c r="D8">
+        <v>0.88925626999999996</v>
+      </c>
+      <c r="E8">
+        <v>0.91804227000000005</v>
+      </c>
+      <c r="F8">
+        <v>0.90077629000000004</v>
+      </c>
+      <c r="G8">
+        <v>0.93329996000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>1.0112055E-2</v>
+      </c>
+      <c r="C9">
+        <v>1.8903115000000002E-2</v>
+      </c>
+      <c r="D9">
+        <v>3.5334345000000003E-2</v>
+      </c>
+      <c r="E9">
+        <v>5.264017E-2</v>
+      </c>
+      <c r="F9">
+        <v>4.540251E-2</v>
+      </c>
+      <c r="G9">
+        <v>6.4427390000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>9.2957524299999997E-2</v>
+      </c>
+      <c r="C10">
+        <v>5.6760720000000001E-2</v>
+      </c>
+      <c r="D10">
+        <v>2.8898261000000001E-2</v>
+      </c>
+      <c r="E10">
+        <v>2.9782969999999999E-2</v>
+      </c>
+      <c r="F10">
+        <v>3.1693159999999998E-2</v>
+      </c>
+      <c r="G10">
+        <v>3.0594659999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>4.3588189999999998E-4</v>
+      </c>
+      <c r="C11">
+        <v>1.5904129999999999E-3</v>
+      </c>
+      <c r="D11">
+        <v>6.6563509999999996E-3</v>
+      </c>
+      <c r="E11">
+        <v>1.381108E-2</v>
+      </c>
+      <c r="F11">
+        <v>9.96966E-3</v>
+      </c>
+      <c r="G11">
+        <v>2.0244539999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>0.1630050566</v>
+      </c>
+      <c r="C12">
+        <v>0.112271845</v>
+      </c>
+      <c r="D12">
+        <v>8.2876415999999994E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.10164563</v>
+      </c>
+      <c r="F12">
+        <v>9.7522049999999999E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.11475546</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>0.68187176380000003</v>
+      </c>
+      <c r="C16">
+        <v>0.77130279099999999</v>
+      </c>
+      <c r="D16">
+        <v>0.91192779099999999</v>
+      </c>
+      <c r="E16">
+        <v>0.93602426999999999</v>
+      </c>
+      <c r="F16">
+        <v>0.92126456000000001</v>
+      </c>
+      <c r="G16">
+        <v>0.94831189000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>1.2219457899999999E-2</v>
+      </c>
+      <c r="C17">
+        <v>2.1776699E-2</v>
+      </c>
+      <c r="D17">
+        <v>3.8210963000000001E-2</v>
+      </c>
+      <c r="E17">
+        <v>5.571926E-2</v>
+      </c>
+      <c r="F17">
+        <v>4.8656959999999999E-2</v>
+      </c>
+      <c r="G17">
+        <v>6.7487859999999997E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>7.1524676400000001E-2</v>
+      </c>
+      <c r="C18">
+        <v>4.7302994000000001E-2</v>
+      </c>
+      <c r="D18">
+        <v>2.7608212E-2</v>
+      </c>
+      <c r="E18">
+        <v>2.6343450000000001E-2</v>
+      </c>
+      <c r="F18">
+        <v>2.6518199999999999E-2</v>
+      </c>
+      <c r="G18">
+        <v>2.6674349999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>1.1316748000000001E-3</v>
+      </c>
+      <c r="C19">
+        <v>2.889361E-3</v>
+      </c>
+      <c r="D19">
+        <v>1.0810274999999999E-2</v>
+      </c>
+      <c r="E19">
+        <v>1.9755869999999998E-2</v>
+      </c>
+      <c r="F19">
+        <v>1.4897860000000001E-2</v>
+      </c>
+      <c r="G19">
+        <v>2.7450240000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>0.1298535599</v>
+      </c>
+      <c r="C20">
+        <v>9.9590413000000003E-2</v>
+      </c>
+      <c r="D20">
+        <v>8.3617920999999998E-2</v>
+      </c>
+      <c r="E20">
+        <v>9.9060280000000001E-2</v>
+      </c>
+      <c r="F20">
+        <v>9.2279130000000001E-2</v>
+      </c>
+      <c r="G20">
+        <v>0.11135902</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>0.6210653317</v>
+      </c>
+      <c r="C21">
+        <v>0.72418628600000001</v>
+      </c>
+      <c r="D21">
+        <v>0.88925626999999996</v>
+      </c>
+      <c r="E21">
+        <v>0.91804227000000005</v>
+      </c>
+      <c r="F21">
+        <v>0.90077629000000004</v>
+      </c>
+      <c r="G21">
+        <v>0.93329996000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>1.0112055E-2</v>
+      </c>
+      <c r="C22">
+        <v>1.8903115000000002E-2</v>
+      </c>
+      <c r="D22">
+        <v>3.5334345000000003E-2</v>
+      </c>
+      <c r="E22">
+        <v>5.264017E-2</v>
+      </c>
+      <c r="F22">
+        <v>4.540251E-2</v>
+      </c>
+      <c r="G22">
+        <v>6.4427390000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>9.2957524299999997E-2</v>
+      </c>
+      <c r="C23">
+        <v>5.6760720000000001E-2</v>
+      </c>
+      <c r="D23">
+        <v>2.8898261000000001E-2</v>
+      </c>
+      <c r="E23">
+        <v>2.9782969999999999E-2</v>
+      </c>
+      <c r="F23">
+        <v>3.1693159999999998E-2</v>
+      </c>
+      <c r="G23">
+        <v>3.0594659999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>4.3588189999999998E-4</v>
+      </c>
+      <c r="C24">
+        <v>1.5904129999999999E-3</v>
+      </c>
+      <c r="D24">
+        <v>6.6563509999999996E-3</v>
+      </c>
+      <c r="E24">
+        <v>1.381108E-2</v>
+      </c>
+      <c r="F24">
+        <v>9.96966E-3</v>
+      </c>
+      <c r="G24">
+        <v>2.0244539999999998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>0.1630050566</v>
+      </c>
+      <c r="C25">
+        <v>0.112271845</v>
+      </c>
+      <c r="D25">
+        <v>8.2876415999999994E-2</v>
+      </c>
+      <c r="E25">
+        <v>0.10164563</v>
+      </c>
+      <c r="F25">
+        <v>9.7522049999999999E-2</v>
+      </c>
+      <c r="G25">
+        <v>0.11475546</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29">
+        <v>0.69349859830000005</v>
+      </c>
+      <c r="C29">
+        <v>0.80060392499999999</v>
+      </c>
+      <c r="D29">
+        <v>0.94199880000000003</v>
+      </c>
+      <c r="E29">
+        <v>0.95756848000000006</v>
+      </c>
+      <c r="F29">
+        <v>0.94654886000000005</v>
+      </c>
+      <c r="G29">
+        <v>0.96502964000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30">
+        <v>9.8269923999999998E-3</v>
+      </c>
+      <c r="C30">
+        <v>2.0690829000000001E-2</v>
+      </c>
+      <c r="D30">
+        <v>4.0075890000000003E-2</v>
+      </c>
+      <c r="E30">
+        <v>5.7805370000000002E-2</v>
+      </c>
+      <c r="F30">
+        <v>5.0783540000000002E-2</v>
+      </c>
+      <c r="G30">
+        <v>6.9009609999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31">
+        <v>4.8041249500000001E-2</v>
+      </c>
+      <c r="C31">
+        <v>3.6836604000000002E-2</v>
+      </c>
+      <c r="D31">
+        <v>1.7565480000000001E-2</v>
+      </c>
+      <c r="E31">
+        <v>1.9567080000000001E-2</v>
+      </c>
+      <c r="F31">
+        <v>2.0241490000000001E-2</v>
+      </c>
+      <c r="G31">
+        <v>2.0629959999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32">
+        <v>9.7637159999999995E-4</v>
+      </c>
+      <c r="C32">
+        <v>3.5050060000000002E-3</v>
+      </c>
+      <c r="D32">
+        <v>1.522167E-2</v>
+      </c>
+      <c r="E32">
+        <v>2.6838210000000001E-2</v>
+      </c>
+      <c r="F32">
+        <v>2.0827390000000001E-2</v>
+      </c>
+      <c r="G32">
+        <v>3.5613739999999998E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33">
+        <v>8.8850220300000005E-2</v>
+      </c>
+      <c r="C33">
+        <v>8.1261112999999996E-2</v>
+      </c>
+      <c r="D33">
+        <v>6.896215E-2</v>
+      </c>
+      <c r="E33">
+        <v>8.998718E-2</v>
+      </c>
+      <c r="F33">
+        <v>8.409411E-2</v>
+      </c>
+      <c r="G33">
+        <v>0.10293412</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34">
+        <v>0.65781277530000004</v>
+      </c>
+      <c r="C34">
+        <v>0.76967160599999995</v>
+      </c>
+      <c r="D34">
+        <v>0.93069824000000001</v>
+      </c>
+      <c r="E34">
+        <v>0.94825771000000003</v>
+      </c>
+      <c r="F34">
+        <v>0.93593112000000001</v>
+      </c>
+      <c r="G34">
+        <v>0.95698077999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35">
+        <v>8.6716059000000005E-3</v>
+      </c>
+      <c r="C35">
+        <v>1.9121946000000001E-2</v>
+      </c>
+      <c r="D35">
+        <v>3.8794349999999998E-2</v>
+      </c>
+      <c r="E35">
+        <v>5.6464559999999997E-2</v>
+      </c>
+      <c r="F35">
+        <v>4.930416E-2</v>
+      </c>
+      <c r="G35">
+        <v>6.7657190000000006E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36">
+        <v>5.5864237099999998E-2</v>
+      </c>
+      <c r="C36">
+        <v>3.7102123000000001E-2</v>
+      </c>
+      <c r="D36">
+        <v>1.9443129999999999E-2</v>
+      </c>
+      <c r="E36">
+        <v>2.1945530000000001E-2</v>
+      </c>
+      <c r="F36">
+        <v>2.2734279999999999E-2</v>
+      </c>
+      <c r="G36">
+        <v>2.3154190000000002E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37">
+        <v>5.572687E-4</v>
+      </c>
+      <c r="C37">
+        <v>2.4008810000000001E-3</v>
+      </c>
+      <c r="D37">
+        <v>1.1841610000000001E-2</v>
+      </c>
+      <c r="E37">
+        <v>2.2293150000000001E-2</v>
+      </c>
+      <c r="F37">
+        <v>1.6840009999999999E-2</v>
+      </c>
+      <c r="G37">
+        <v>3.049019E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38">
+        <v>0.10054685620000001</v>
+      </c>
+      <c r="C38">
+        <v>8.0154786000000006E-2</v>
+      </c>
+      <c r="D38">
+        <v>7.077994E-2</v>
+      </c>
+      <c r="E38">
+        <v>9.2567880000000005E-2</v>
+      </c>
+      <c r="F38">
+        <v>8.6713659999999998E-2</v>
+      </c>
+      <c r="G38">
+        <v>0.10576272</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42">
+        <v>0.63585119999999995</v>
+      </c>
+      <c r="C42">
+        <v>0.83353880000000002</v>
+      </c>
+      <c r="D42">
+        <v>0.96483839999999998</v>
+      </c>
+      <c r="E42">
+        <v>0.9745104</v>
+      </c>
+      <c r="F42">
+        <v>0.96739220000000004</v>
+      </c>
+      <c r="G42">
+        <v>0.9786648</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43">
+        <v>7.2956000000000002E-3</v>
+      </c>
+      <c r="C43">
+        <v>2.0764399999999999E-2</v>
+      </c>
+      <c r="D43">
+        <v>4.1165800000000002E-2</v>
+      </c>
+      <c r="E43">
+        <v>5.9092199999999998E-2</v>
+      </c>
+      <c r="F43">
+        <v>5.2114599999999997E-2</v>
+      </c>
+      <c r="G43">
+        <v>6.9982600000000006E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44">
+        <v>3.0807000000000001E-2</v>
+      </c>
+      <c r="C44">
+        <v>2.1063800000000001E-2</v>
+      </c>
+      <c r="D44">
+        <v>1.25088E-2</v>
+      </c>
+      <c r="E44">
+        <v>1.44856E-2</v>
+      </c>
+      <c r="F44">
+        <v>1.4741199999999999E-2</v>
+      </c>
+      <c r="G44">
+        <v>1.54564E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45">
+        <v>8.1280000000000002E-4</v>
+      </c>
+      <c r="C45">
+        <v>4.653E-3</v>
+      </c>
+      <c r="D45">
+        <v>2.1070200000000001E-2</v>
+      </c>
+      <c r="E45">
+        <v>3.53196E-2</v>
+      </c>
+      <c r="F45">
+        <v>2.8102800000000001E-2</v>
+      </c>
+      <c r="G45">
+        <v>4.4554999999999997E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46">
+        <v>5.7964000000000002E-2</v>
+      </c>
+      <c r="C46">
+        <v>5.5424000000000001E-2</v>
+      </c>
+      <c r="D46">
+        <v>6.1736600000000003E-2</v>
+      </c>
+      <c r="E46">
+        <v>8.2912E-2</v>
+      </c>
+      <c r="F46">
+        <v>7.6364000000000001E-2</v>
+      </c>
+      <c r="G46">
+        <v>9.5413600000000001E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47">
+        <v>0.61061840000000001</v>
+      </c>
+      <c r="C47">
+        <v>0.81485920000000001</v>
+      </c>
+      <c r="D47">
+        <v>0.95901499999999995</v>
+      </c>
+      <c r="E47">
+        <v>0.96970999999999996</v>
+      </c>
+      <c r="F47">
+        <v>0.96216699999999999</v>
+      </c>
+      <c r="G47">
+        <v>0.97446739999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48">
+        <v>6.7759999999999999E-3</v>
+      </c>
+      <c r="C48">
+        <v>1.9954800000000002E-2</v>
+      </c>
+      <c r="D48">
+        <v>4.0692800000000001E-2</v>
+      </c>
+      <c r="E48">
+        <v>5.8575200000000001E-2</v>
+      </c>
+      <c r="F48">
+        <v>5.15264E-2</v>
+      </c>
+      <c r="G48">
+        <v>6.9426600000000005E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49">
+        <v>4.8289400000000003E-2</v>
+      </c>
+      <c r="C49">
+        <v>2.54722E-2</v>
+      </c>
+      <c r="D49">
+        <v>1.36902E-2</v>
+      </c>
+      <c r="E49">
+        <v>1.5934400000000001E-2</v>
+      </c>
+      <c r="F49">
+        <v>1.60398E-2</v>
+      </c>
+      <c r="G49">
+        <v>1.7029599999999999E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50">
+        <v>5.8520000000000002E-4</v>
+      </c>
+      <c r="C50">
+        <v>3.7902000000000001E-3</v>
+      </c>
+      <c r="D50">
+        <v>1.8811000000000001E-2</v>
+      </c>
+      <c r="E50">
+        <v>3.2450399999999997E-2</v>
+      </c>
+      <c r="F50">
+        <v>2.5512199999999999E-2</v>
+      </c>
+      <c r="G50">
+        <v>4.1423599999999998E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51">
+        <v>8.6219000000000004E-2</v>
+      </c>
+      <c r="C51">
+        <v>6.1848E-2</v>
+      </c>
+      <c r="D51">
+        <v>6.3202400000000006E-2</v>
+      </c>
+      <c r="E51">
+        <v>8.4780999999999995E-2</v>
+      </c>
+      <c r="F51">
+        <v>7.7915600000000002E-2</v>
+      </c>
+      <c r="G51">
+        <v>9.7455399999999998E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55">
+        <v>0.5902944</v>
+      </c>
+      <c r="C55">
+        <v>0.88789620000000002</v>
+      </c>
+      <c r="D55">
+        <v>0.97801640000000001</v>
+      </c>
+      <c r="E55">
+        <v>0.98397880000000004</v>
+      </c>
+      <c r="F55">
+        <v>0.97941400000000001</v>
+      </c>
+      <c r="G55">
+        <v>0.98648020000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56">
+        <v>5.8646000000000002E-3</v>
+      </c>
+      <c r="C56">
+        <v>2.16638E-2</v>
+      </c>
+      <c r="D56">
+        <v>4.1866399999999998E-2</v>
+      </c>
+      <c r="E56">
+        <v>5.9500200000000003E-2</v>
+      </c>
+      <c r="F56">
+        <v>5.2826400000000003E-2</v>
+      </c>
+      <c r="G56">
+        <v>7.0261000000000004E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57">
+        <v>2.2039E-2</v>
+      </c>
+      <c r="C57">
+        <v>1.4498799999999999E-2</v>
+      </c>
+      <c r="D57">
+        <v>9.5048000000000007E-3</v>
+      </c>
+      <c r="E57">
+        <v>1.11874E-2</v>
+      </c>
+      <c r="F57">
+        <v>1.13656E-2</v>
+      </c>
+      <c r="G57">
+        <v>1.2031399999999999E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58">
+        <v>7.0359999999999997E-4</v>
+      </c>
+      <c r="C58">
+        <v>6.2220000000000001E-3</v>
+      </c>
+      <c r="D58">
+        <v>2.6254199999999998E-2</v>
+      </c>
+      <c r="E58">
+        <v>4.1097799999999997E-2</v>
+      </c>
+      <c r="F58">
+        <v>3.4135600000000002E-2</v>
+      </c>
+      <c r="G58">
+        <v>5.0477399999999999E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59">
+        <v>4.2128400000000003E-2</v>
+      </c>
+      <c r="C59">
+        <v>4.5521800000000001E-2</v>
+      </c>
+      <c r="D59">
+        <v>5.7498800000000003E-2</v>
+      </c>
+      <c r="E59">
+        <v>7.78948E-2</v>
+      </c>
+      <c r="F59">
+        <v>7.1509799999999998E-2</v>
+      </c>
+      <c r="G59">
+        <v>9.0045E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60">
+        <v>0.56550520000000004</v>
+      </c>
+      <c r="C60">
+        <v>0.87789879999999998</v>
+      </c>
+      <c r="D60">
+        <v>0.97460579999999997</v>
+      </c>
+      <c r="E60">
+        <v>0.98114140000000005</v>
+      </c>
+      <c r="F60">
+        <v>0.97640020000000005</v>
+      </c>
+      <c r="G60">
+        <v>0.98403079999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61">
+        <v>5.5947999999999996E-3</v>
+      </c>
+      <c r="C61">
+        <v>2.1221E-2</v>
+      </c>
+      <c r="D61">
+        <v>4.1680200000000001E-2</v>
+      </c>
+      <c r="E61">
+        <v>5.9242000000000003E-2</v>
+      </c>
+      <c r="F61">
+        <v>5.2562600000000001E-2</v>
+      </c>
+      <c r="G61">
+        <v>6.9986800000000002E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62">
+        <v>6.9981600000000005E-2</v>
+      </c>
+      <c r="C62">
+        <v>1.52742E-2</v>
+      </c>
+      <c r="D62">
+        <v>1.0308599999999999E-2</v>
+      </c>
+      <c r="E62">
+        <v>1.22054E-2</v>
+      </c>
+      <c r="F62">
+        <v>1.22408E-2</v>
+      </c>
+      <c r="G62">
+        <v>1.3123599999999999E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63">
+        <v>5.7640000000000002E-4</v>
+      </c>
+      <c r="C63">
+        <v>5.4961999999999997E-3</v>
+      </c>
+      <c r="D63">
+        <v>2.4753000000000001E-2</v>
+      </c>
+      <c r="E63">
+        <v>3.9171600000000001E-2</v>
+      </c>
+      <c r="F63">
+        <v>3.2437399999999998E-2</v>
+      </c>
+      <c r="G63">
+        <v>4.8393400000000003E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64">
+        <v>0.12072720000000001</v>
+      </c>
+      <c r="C64">
+        <v>4.6341199999999999E-2</v>
+      </c>
+      <c r="D64">
+        <v>5.8634400000000003E-2</v>
+      </c>
+      <c r="E64">
+        <v>7.9319799999999996E-2</v>
+      </c>
+      <c r="F64">
+        <v>7.2695399999999993E-2</v>
+      </c>
+      <c r="G64">
+        <v>9.15826E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68">
+        <v>0.70530040000000005</v>
+      </c>
+      <c r="C68">
+        <v>0.90765059999999997</v>
+      </c>
+      <c r="D68">
+        <v>0.98260800000000004</v>
+      </c>
+      <c r="E68">
+        <v>0.98718779999999995</v>
+      </c>
+      <c r="F68">
+        <v>0.98360720000000001</v>
+      </c>
+      <c r="G68">
+        <v>0.98922980000000005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69">
+        <v>5.1355999999999997E-3</v>
+      </c>
+      <c r="C69">
+        <v>2.1821799999999999E-2</v>
+      </c>
+      <c r="D69">
+        <v>4.2103599999999998E-2</v>
+      </c>
+      <c r="E69">
+        <v>5.95124E-2</v>
+      </c>
+      <c r="F69">
+        <v>5.29752E-2</v>
+      </c>
+      <c r="G69">
+        <v>7.0460599999999998E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70">
+        <v>2.2310199999999999E-2</v>
+      </c>
+      <c r="C70">
+        <v>1.2687E-2</v>
+      </c>
+      <c r="D70">
+        <v>8.3567999999999993E-3</v>
+      </c>
+      <c r="E70">
+        <v>9.9006000000000007E-3</v>
+      </c>
+      <c r="F70">
+        <v>1.0055E-2</v>
+      </c>
+      <c r="G70">
+        <v>1.06912E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71">
+        <v>5.9820000000000001E-4</v>
+      </c>
+      <c r="C71">
+        <v>7.1181999999999999E-3</v>
+      </c>
+      <c r="D71">
+        <v>2.8345599999999999E-2</v>
+      </c>
+      <c r="E71">
+        <v>4.3208799999999999E-2</v>
+      </c>
+      <c r="F71">
+        <v>3.6447E-2</v>
+      </c>
+      <c r="G71">
+        <v>5.28852E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72">
+        <v>4.1833799999999997E-2</v>
+      </c>
+      <c r="C72">
+        <v>4.2674200000000002E-2</v>
+      </c>
+      <c r="D72">
+        <v>5.5868399999999999E-2</v>
+      </c>
+      <c r="E72">
+        <v>7.5808200000000006E-2</v>
+      </c>
+      <c r="F72">
+        <v>6.9514000000000006E-2</v>
+      </c>
+      <c r="G72">
+        <v>8.8035600000000006E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73">
+        <v>0.69482239999999995</v>
+      </c>
+      <c r="C73">
+        <v>0.900339</v>
+      </c>
+      <c r="D73">
+        <v>0.97992199999999996</v>
+      </c>
+      <c r="E73">
+        <v>0.98499700000000001</v>
+      </c>
+      <c r="F73">
+        <v>0.981267</v>
+      </c>
+      <c r="G73">
+        <v>0.98734120000000003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74">
+        <v>4.9487999999999997E-3</v>
+      </c>
+      <c r="C74">
+        <v>2.1488400000000001E-2</v>
+      </c>
+      <c r="D74">
+        <v>4.1981600000000001E-2</v>
+      </c>
+      <c r="E74">
+        <v>5.9337000000000001E-2</v>
+      </c>
+      <c r="F74">
+        <v>5.2799400000000003E-2</v>
+      </c>
+      <c r="G74">
+        <v>7.0253800000000005E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75">
+        <v>4.4086800000000002E-2</v>
+      </c>
+      <c r="C75">
+        <v>1.53002E-2</v>
+      </c>
+      <c r="D75">
+        <v>9.0545999999999995E-3</v>
+      </c>
+      <c r="E75">
+        <v>1.07686E-2</v>
+      </c>
+      <c r="F75">
+        <v>1.0799400000000001E-2</v>
+      </c>
+      <c r="G75">
+        <v>1.16338E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76">
+        <v>5.1340000000000001E-4</v>
+      </c>
+      <c r="C76">
+        <v>6.4574000000000003E-3</v>
+      </c>
+      <c r="D76">
+        <v>2.7100599999999999E-2</v>
+      </c>
+      <c r="E76">
+        <v>4.1617800000000003E-2</v>
+      </c>
+      <c r="F76">
+        <v>3.5036400000000002E-2</v>
+      </c>
+      <c r="G76">
+        <v>5.1120400000000003E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77">
+        <v>7.7460600000000004E-2</v>
+      </c>
+      <c r="C77">
+        <v>4.6671600000000001E-2</v>
+      </c>
+      <c r="D77">
+        <v>5.6863400000000001E-2</v>
+      </c>
+      <c r="E77">
+        <v>7.7052399999999993E-2</v>
+      </c>
+      <c r="F77">
+        <v>7.0552799999999999E-2</v>
+      </c>
+      <c r="G77">
+        <v>8.9382799999999998E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710D0E45-FBE7-4342-BF9A-FFD10053C882}">
+  <dimension ref="A1:G77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>0.68187176380000003</v>
+      </c>
+      <c r="C3">
+        <v>0.77130279099999999</v>
+      </c>
+      <c r="D3">
+        <v>0.91192779099999999</v>
+      </c>
+      <c r="E3">
+        <v>0.93602426999999999</v>
+      </c>
+      <c r="F3">
+        <v>0.92126456000000001</v>
+      </c>
+      <c r="G3">
+        <v>0.94831189000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>1.2219457899999999E-2</v>
+      </c>
+      <c r="C4">
+        <v>2.1776699E-2</v>
+      </c>
+      <c r="D4">
+        <v>3.8210963000000001E-2</v>
+      </c>
+      <c r="E4">
+        <v>5.571926E-2</v>
+      </c>
+      <c r="F4">
+        <v>4.8656959999999999E-2</v>
+      </c>
+      <c r="G4">
+        <v>6.7487859999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>7.1524676400000001E-2</v>
+      </c>
+      <c r="C5">
+        <v>4.7302994000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.7608212E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.6343450000000001E-2</v>
+      </c>
+      <c r="F5">
+        <v>2.6518199999999999E-2</v>
+      </c>
+      <c r="G5">
+        <v>2.6674349999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>1.1316748000000001E-3</v>
+      </c>
+      <c r="C6">
+        <v>2.889361E-3</v>
+      </c>
+      <c r="D6">
+        <v>1.0810274999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>1.9755869999999998E-2</v>
+      </c>
+      <c r="F6">
+        <v>1.4897860000000001E-2</v>
+      </c>
+      <c r="G6">
+        <v>2.7450240000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>0.1298535599</v>
+      </c>
+      <c r="C7">
+        <v>9.9590413000000003E-2</v>
+      </c>
+      <c r="D7">
+        <v>8.3617920999999998E-2</v>
+      </c>
+      <c r="E7">
+        <v>9.9060280000000001E-2</v>
+      </c>
+      <c r="F7">
+        <v>9.2279130000000001E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.11135902</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>0.6210653317</v>
+      </c>
+      <c r="C8">
+        <v>0.72418628600000001</v>
+      </c>
+      <c r="D8">
+        <v>0.88925626999999996</v>
+      </c>
+      <c r="E8">
+        <v>0.91804227000000005</v>
+      </c>
+      <c r="F8">
+        <v>0.90077629000000004</v>
+      </c>
+      <c r="G8">
+        <v>0.93329996000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>1.0112055E-2</v>
+      </c>
+      <c r="C9">
+        <v>1.8903115000000002E-2</v>
+      </c>
+      <c r="D9">
+        <v>3.5334345000000003E-2</v>
+      </c>
+      <c r="E9">
+        <v>5.264017E-2</v>
+      </c>
+      <c r="F9">
+        <v>4.540251E-2</v>
+      </c>
+      <c r="G9">
+        <v>6.4427390000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>9.2957524299999997E-2</v>
+      </c>
+      <c r="C10">
+        <v>5.6760720000000001E-2</v>
+      </c>
+      <c r="D10">
+        <v>2.8898261000000001E-2</v>
+      </c>
+      <c r="E10">
+        <v>2.9782969999999999E-2</v>
+      </c>
+      <c r="F10">
+        <v>3.1693159999999998E-2</v>
+      </c>
+      <c r="G10">
+        <v>3.0594659999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>4.3588189999999998E-4</v>
+      </c>
+      <c r="C11">
+        <v>1.5904129999999999E-3</v>
+      </c>
+      <c r="D11">
+        <v>6.6563509999999996E-3</v>
+      </c>
+      <c r="E11">
+        <v>1.381108E-2</v>
+      </c>
+      <c r="F11">
+        <v>9.96966E-3</v>
+      </c>
+      <c r="G11">
+        <v>2.0244539999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>0.1630050566</v>
+      </c>
+      <c r="C12">
+        <v>0.112271845</v>
+      </c>
+      <c r="D12">
+        <v>8.2876415999999994E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.10164563</v>
+      </c>
+      <c r="F12">
+        <v>9.7522049999999999E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.11475546</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>0.68187176380000003</v>
+      </c>
+      <c r="C16">
+        <v>0.77130279099999999</v>
+      </c>
+      <c r="D16">
+        <v>0.91192779099999999</v>
+      </c>
+      <c r="E16">
+        <v>0.93602426999999999</v>
+      </c>
+      <c r="F16">
+        <v>0.92126456000000001</v>
+      </c>
+      <c r="G16">
+        <v>0.94831189000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>1.2219457899999999E-2</v>
+      </c>
+      <c r="C17">
+        <v>2.1776699E-2</v>
+      </c>
+      <c r="D17">
+        <v>3.8210963000000001E-2</v>
+      </c>
+      <c r="E17">
+        <v>5.571926E-2</v>
+      </c>
+      <c r="F17">
+        <v>4.8656959999999999E-2</v>
+      </c>
+      <c r="G17">
+        <v>6.7487859999999997E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>7.1524676400000001E-2</v>
+      </c>
+      <c r="C18">
+        <v>4.7302994000000001E-2</v>
+      </c>
+      <c r="D18">
+        <v>2.7608212E-2</v>
+      </c>
+      <c r="E18">
+        <v>2.6343450000000001E-2</v>
+      </c>
+      <c r="F18">
+        <v>2.6518199999999999E-2</v>
+      </c>
+      <c r="G18">
+        <v>2.6674349999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>1.1316748000000001E-3</v>
+      </c>
+      <c r="C19">
+        <v>2.889361E-3</v>
+      </c>
+      <c r="D19">
+        <v>1.0810274999999999E-2</v>
+      </c>
+      <c r="E19">
+        <v>1.9755869999999998E-2</v>
+      </c>
+      <c r="F19">
+        <v>1.4897860000000001E-2</v>
+      </c>
+      <c r="G19">
+        <v>2.7450240000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>0.1298535599</v>
+      </c>
+      <c r="C20">
+        <v>9.9590413000000003E-2</v>
+      </c>
+      <c r="D20">
+        <v>8.3617920999999998E-2</v>
+      </c>
+      <c r="E20">
+        <v>9.9060280000000001E-2</v>
+      </c>
+      <c r="F20">
+        <v>9.2279130000000001E-2</v>
+      </c>
+      <c r="G20">
+        <v>0.11135902</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>0.6210653317</v>
+      </c>
+      <c r="C21">
+        <v>0.72418628600000001</v>
+      </c>
+      <c r="D21">
+        <v>0.88925626999999996</v>
+      </c>
+      <c r="E21">
+        <v>0.91804227000000005</v>
+      </c>
+      <c r="F21">
+        <v>0.90077629000000004</v>
+      </c>
+      <c r="G21">
+        <v>0.93329996000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>1.0112055E-2</v>
+      </c>
+      <c r="C22">
+        <v>1.8903115000000002E-2</v>
+      </c>
+      <c r="D22">
+        <v>3.5334345000000003E-2</v>
+      </c>
+      <c r="E22">
+        <v>5.264017E-2</v>
+      </c>
+      <c r="F22">
+        <v>4.540251E-2</v>
+      </c>
+      <c r="G22">
+        <v>6.4427390000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>9.2957524299999997E-2</v>
+      </c>
+      <c r="C23">
+        <v>5.6760720000000001E-2</v>
+      </c>
+      <c r="D23">
+        <v>2.8898261000000001E-2</v>
+      </c>
+      <c r="E23">
+        <v>2.9782969999999999E-2</v>
+      </c>
+      <c r="F23">
+        <v>3.1693159999999998E-2</v>
+      </c>
+      <c r="G23">
+        <v>3.0594659999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>4.3588189999999998E-4</v>
+      </c>
+      <c r="C24">
+        <v>1.5904129999999999E-3</v>
+      </c>
+      <c r="D24">
+        <v>6.6563509999999996E-3</v>
+      </c>
+      <c r="E24">
+        <v>1.381108E-2</v>
+      </c>
+      <c r="F24">
+        <v>9.96966E-3</v>
+      </c>
+      <c r="G24">
+        <v>2.0244539999999998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>0.1630050566</v>
+      </c>
+      <c r="C25">
+        <v>0.112271845</v>
+      </c>
+      <c r="D25">
+        <v>8.2876415999999994E-2</v>
+      </c>
+      <c r="E25">
+        <v>0.10164563</v>
+      </c>
+      <c r="F25">
+        <v>9.7522049999999999E-2</v>
+      </c>
+      <c r="G25">
+        <v>0.11475546</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29">
+        <v>0.69349859830000005</v>
+      </c>
+      <c r="C29">
+        <v>0.80060392499999999</v>
+      </c>
+      <c r="D29">
+        <v>0.94199880000000003</v>
+      </c>
+      <c r="E29">
+        <v>0.95756848000000006</v>
+      </c>
+      <c r="F29">
+        <v>0.94654886000000005</v>
+      </c>
+      <c r="G29">
+        <v>0.96502964000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30">
+        <v>9.8269923999999998E-3</v>
+      </c>
+      <c r="C30">
+        <v>2.0690829000000001E-2</v>
+      </c>
+      <c r="D30">
+        <v>4.0075890000000003E-2</v>
+      </c>
+      <c r="E30">
+        <v>5.7805370000000002E-2</v>
+      </c>
+      <c r="F30">
+        <v>5.0783540000000002E-2</v>
+      </c>
+      <c r="G30">
+        <v>6.9009609999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31">
+        <v>4.8041249500000001E-2</v>
+      </c>
+      <c r="C31">
+        <v>3.6836604000000002E-2</v>
+      </c>
+      <c r="D31">
+        <v>1.7565480000000001E-2</v>
+      </c>
+      <c r="E31">
+        <v>1.9567080000000001E-2</v>
+      </c>
+      <c r="F31">
+        <v>2.0241490000000001E-2</v>
+      </c>
+      <c r="G31">
+        <v>2.0629959999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32">
+        <v>9.7637159999999995E-4</v>
+      </c>
+      <c r="C32">
+        <v>3.5050060000000002E-3</v>
+      </c>
+      <c r="D32">
+        <v>1.522167E-2</v>
+      </c>
+      <c r="E32">
+        <v>2.6838210000000001E-2</v>
+      </c>
+      <c r="F32">
+        <v>2.0827390000000001E-2</v>
+      </c>
+      <c r="G32">
+        <v>3.5613739999999998E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33">
+        <v>8.8850220300000005E-2</v>
+      </c>
+      <c r="C33">
+        <v>8.1261112999999996E-2</v>
+      </c>
+      <c r="D33">
+        <v>6.896215E-2</v>
+      </c>
+      <c r="E33">
+        <v>8.998718E-2</v>
+      </c>
+      <c r="F33">
+        <v>8.409411E-2</v>
+      </c>
+      <c r="G33">
+        <v>0.10293412</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34">
+        <v>0.65781277530000004</v>
+      </c>
+      <c r="C34">
+        <v>0.76967160599999995</v>
+      </c>
+      <c r="D34">
+        <v>0.93069824000000001</v>
+      </c>
+      <c r="E34">
+        <v>0.94825771000000003</v>
+      </c>
+      <c r="F34">
+        <v>0.93593112000000001</v>
+      </c>
+      <c r="G34">
+        <v>0.95698077999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35">
+        <v>8.6716059000000005E-3</v>
+      </c>
+      <c r="C35">
+        <v>1.9121946000000001E-2</v>
+      </c>
+      <c r="D35">
+        <v>3.8794349999999998E-2</v>
+      </c>
+      <c r="E35">
+        <v>5.6464559999999997E-2</v>
+      </c>
+      <c r="F35">
+        <v>4.930416E-2</v>
+      </c>
+      <c r="G35">
+        <v>6.7657190000000006E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36">
+        <v>5.5864237099999998E-2</v>
+      </c>
+      <c r="C36">
+        <v>3.7102123000000001E-2</v>
+      </c>
+      <c r="D36">
+        <v>1.9443129999999999E-2</v>
+      </c>
+      <c r="E36">
+        <v>2.1945530000000001E-2</v>
+      </c>
+      <c r="F36">
+        <v>2.2734279999999999E-2</v>
+      </c>
+      <c r="G36">
+        <v>2.3154190000000002E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37">
+        <v>5.572687E-4</v>
+      </c>
+      <c r="C37">
+        <v>2.4008810000000001E-3</v>
+      </c>
+      <c r="D37">
+        <v>1.1841610000000001E-2</v>
+      </c>
+      <c r="E37">
+        <v>2.2293150000000001E-2</v>
+      </c>
+      <c r="F37">
+        <v>1.6840009999999999E-2</v>
+      </c>
+      <c r="G37">
+        <v>3.049019E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38">
+        <v>0.10054685620000001</v>
+      </c>
+      <c r="C38">
+        <v>8.0154786000000006E-2</v>
+      </c>
+      <c r="D38">
+        <v>7.077994E-2</v>
+      </c>
+      <c r="E38">
+        <v>9.2567880000000005E-2</v>
+      </c>
+      <c r="F38">
+        <v>8.6713659999999998E-2</v>
+      </c>
+      <c r="G38">
+        <v>0.10576272</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42">
+        <v>0.63585119999999995</v>
+      </c>
+      <c r="C42">
+        <v>0.83353880000000002</v>
+      </c>
+      <c r="D42">
+        <v>0.96483839999999998</v>
+      </c>
+      <c r="E42">
+        <v>0.9745104</v>
+      </c>
+      <c r="F42">
+        <v>0.96739220000000004</v>
+      </c>
+      <c r="G42">
+        <v>0.9786648</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43">
+        <v>7.2956000000000002E-3</v>
+      </c>
+      <c r="C43">
+        <v>2.0764399999999999E-2</v>
+      </c>
+      <c r="D43">
+        <v>4.1165800000000002E-2</v>
+      </c>
+      <c r="E43">
+        <v>5.9092199999999998E-2</v>
+      </c>
+      <c r="F43">
+        <v>5.2114599999999997E-2</v>
+      </c>
+      <c r="G43">
+        <v>6.9982600000000006E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44">
+        <v>3.0807000000000001E-2</v>
+      </c>
+      <c r="C44">
+        <v>2.1063800000000001E-2</v>
+      </c>
+      <c r="D44">
+        <v>1.25088E-2</v>
+      </c>
+      <c r="E44">
+        <v>1.44856E-2</v>
+      </c>
+      <c r="F44">
+        <v>1.4741199999999999E-2</v>
+      </c>
+      <c r="G44">
+        <v>1.54564E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45">
+        <v>8.1280000000000002E-4</v>
+      </c>
+      <c r="C45">
+        <v>4.653E-3</v>
+      </c>
+      <c r="D45">
+        <v>2.1070200000000001E-2</v>
+      </c>
+      <c r="E45">
+        <v>3.53196E-2</v>
+      </c>
+      <c r="F45">
+        <v>2.8102800000000001E-2</v>
+      </c>
+      <c r="G45">
+        <v>4.4554999999999997E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46">
+        <v>5.7964000000000002E-2</v>
+      </c>
+      <c r="C46">
+        <v>5.5424000000000001E-2</v>
+      </c>
+      <c r="D46">
+        <v>6.1736600000000003E-2</v>
+      </c>
+      <c r="E46">
+        <v>8.2912E-2</v>
+      </c>
+      <c r="F46">
+        <v>7.6364000000000001E-2</v>
+      </c>
+      <c r="G46">
+        <v>9.5413600000000001E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47">
+        <v>0.61061840000000001</v>
+      </c>
+      <c r="C47">
+        <v>0.81485920000000001</v>
+      </c>
+      <c r="D47">
+        <v>0.95901499999999995</v>
+      </c>
+      <c r="E47">
+        <v>0.96970999999999996</v>
+      </c>
+      <c r="F47">
+        <v>0.96216699999999999</v>
+      </c>
+      <c r="G47">
+        <v>0.97446739999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48">
+        <v>6.7759999999999999E-3</v>
+      </c>
+      <c r="C48">
+        <v>1.9954800000000002E-2</v>
+      </c>
+      <c r="D48">
+        <v>4.0692800000000001E-2</v>
+      </c>
+      <c r="E48">
+        <v>5.8575200000000001E-2</v>
+      </c>
+      <c r="F48">
+        <v>5.15264E-2</v>
+      </c>
+      <c r="G48">
+        <v>6.9426600000000005E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49">
+        <v>4.8289400000000003E-2</v>
+      </c>
+      <c r="C49">
+        <v>2.54722E-2</v>
+      </c>
+      <c r="D49">
+        <v>1.36902E-2</v>
+      </c>
+      <c r="E49">
+        <v>1.5934400000000001E-2</v>
+      </c>
+      <c r="F49">
+        <v>1.60398E-2</v>
+      </c>
+      <c r="G49">
+        <v>1.7029599999999999E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50">
+        <v>5.8520000000000002E-4</v>
+      </c>
+      <c r="C50">
+        <v>3.7902000000000001E-3</v>
+      </c>
+      <c r="D50">
+        <v>1.8811000000000001E-2</v>
+      </c>
+      <c r="E50">
+        <v>3.2450399999999997E-2</v>
+      </c>
+      <c r="F50">
+        <v>2.5512199999999999E-2</v>
+      </c>
+      <c r="G50">
+        <v>4.1423599999999998E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51">
+        <v>8.6219000000000004E-2</v>
+      </c>
+      <c r="C51">
+        <v>6.1848E-2</v>
+      </c>
+      <c r="D51">
+        <v>6.3202400000000006E-2</v>
+      </c>
+      <c r="E51">
+        <v>8.4780999999999995E-2</v>
+      </c>
+      <c r="F51">
+        <v>7.7915600000000002E-2</v>
+      </c>
+      <c r="G51">
+        <v>9.7455399999999998E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55">
+        <v>0.5902944</v>
+      </c>
+      <c r="C55">
+        <v>0.88789620000000002</v>
+      </c>
+      <c r="D55">
+        <v>0.97801640000000001</v>
+      </c>
+      <c r="E55">
+        <v>0.98397880000000004</v>
+      </c>
+      <c r="F55">
+        <v>0.97941400000000001</v>
+      </c>
+      <c r="G55">
+        <v>0.98648020000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56">
+        <v>5.8646000000000002E-3</v>
+      </c>
+      <c r="C56">
+        <v>2.16638E-2</v>
+      </c>
+      <c r="D56">
+        <v>4.1866399999999998E-2</v>
+      </c>
+      <c r="E56">
+        <v>5.9500200000000003E-2</v>
+      </c>
+      <c r="F56">
+        <v>5.2826400000000003E-2</v>
+      </c>
+      <c r="G56">
+        <v>7.0261000000000004E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57">
+        <v>2.2039E-2</v>
+      </c>
+      <c r="C57">
+        <v>1.4498799999999999E-2</v>
+      </c>
+      <c r="D57">
+        <v>9.5048000000000007E-3</v>
+      </c>
+      <c r="E57">
+        <v>1.11874E-2</v>
+      </c>
+      <c r="F57">
+        <v>1.13656E-2</v>
+      </c>
+      <c r="G57">
+        <v>1.2031399999999999E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58">
+        <v>7.0359999999999997E-4</v>
+      </c>
+      <c r="C58">
+        <v>6.2220000000000001E-3</v>
+      </c>
+      <c r="D58">
+        <v>2.6254199999999998E-2</v>
+      </c>
+      <c r="E58">
+        <v>4.1097799999999997E-2</v>
+      </c>
+      <c r="F58">
+        <v>3.4135600000000002E-2</v>
+      </c>
+      <c r="G58">
+        <v>5.0477399999999999E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59">
+        <v>4.2128400000000003E-2</v>
+      </c>
+      <c r="C59">
+        <v>4.5521800000000001E-2</v>
+      </c>
+      <c r="D59">
+        <v>5.7498800000000003E-2</v>
+      </c>
+      <c r="E59">
+        <v>7.78948E-2</v>
+      </c>
+      <c r="F59">
+        <v>7.1509799999999998E-2</v>
+      </c>
+      <c r="G59">
+        <v>9.0045E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60">
+        <v>0.56550520000000004</v>
+      </c>
+      <c r="C60">
+        <v>0.87789879999999998</v>
+      </c>
+      <c r="D60">
+        <v>0.97460579999999997</v>
+      </c>
+      <c r="E60">
+        <v>0.98114140000000005</v>
+      </c>
+      <c r="F60">
+        <v>0.97640020000000005</v>
+      </c>
+      <c r="G60">
+        <v>0.98403079999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61">
+        <v>5.5947999999999996E-3</v>
+      </c>
+      <c r="C61">
+        <v>2.1221E-2</v>
+      </c>
+      <c r="D61">
+        <v>4.1680200000000001E-2</v>
+      </c>
+      <c r="E61">
+        <v>5.9242000000000003E-2</v>
+      </c>
+      <c r="F61">
+        <v>5.2562600000000001E-2</v>
+      </c>
+      <c r="G61">
+        <v>6.9986800000000002E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62">
+        <v>6.9981600000000005E-2</v>
+      </c>
+      <c r="C62">
+        <v>1.52742E-2</v>
+      </c>
+      <c r="D62">
+        <v>1.0308599999999999E-2</v>
+      </c>
+      <c r="E62">
+        <v>1.22054E-2</v>
+      </c>
+      <c r="F62">
+        <v>1.22408E-2</v>
+      </c>
+      <c r="G62">
+        <v>1.3123599999999999E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63">
+        <v>5.7640000000000002E-4</v>
+      </c>
+      <c r="C63">
+        <v>5.4961999999999997E-3</v>
+      </c>
+      <c r="D63">
+        <v>2.4753000000000001E-2</v>
+      </c>
+      <c r="E63">
+        <v>3.9171600000000001E-2</v>
+      </c>
+      <c r="F63">
+        <v>3.2437399999999998E-2</v>
+      </c>
+      <c r="G63">
+        <v>4.8393400000000003E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64">
+        <v>0.12072720000000001</v>
+      </c>
+      <c r="C64">
+        <v>4.6341199999999999E-2</v>
+      </c>
+      <c r="D64">
+        <v>5.8634400000000003E-2</v>
+      </c>
+      <c r="E64">
+        <v>7.9319799999999996E-2</v>
+      </c>
+      <c r="F64">
+        <v>7.2695399999999993E-2</v>
+      </c>
+      <c r="G64">
+        <v>9.15826E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68">
+        <v>0.70530040000000005</v>
+      </c>
+      <c r="C68">
+        <v>0.90765059999999997</v>
+      </c>
+      <c r="D68">
+        <v>0.98260800000000004</v>
+      </c>
+      <c r="E68">
+        <v>0.98718779999999995</v>
+      </c>
+      <c r="F68">
+        <v>0.98360720000000001</v>
+      </c>
+      <c r="G68">
+        <v>0.98922980000000005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69">
+        <v>5.1355999999999997E-3</v>
+      </c>
+      <c r="C69">
+        <v>2.1821799999999999E-2</v>
+      </c>
+      <c r="D69">
+        <v>4.2103599999999998E-2</v>
+      </c>
+      <c r="E69">
+        <v>5.95124E-2</v>
+      </c>
+      <c r="F69">
+        <v>5.29752E-2</v>
+      </c>
+      <c r="G69">
+        <v>7.0460599999999998E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70">
+        <v>2.2310199999999999E-2</v>
+      </c>
+      <c r="C70">
+        <v>1.2687E-2</v>
+      </c>
+      <c r="D70">
+        <v>8.3567999999999993E-3</v>
+      </c>
+      <c r="E70">
+        <v>9.9006000000000007E-3</v>
+      </c>
+      <c r="F70">
+        <v>1.0055E-2</v>
+      </c>
+      <c r="G70">
+        <v>1.06912E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71">
+        <v>5.9820000000000001E-4</v>
+      </c>
+      <c r="C71">
+        <v>7.1181999999999999E-3</v>
+      </c>
+      <c r="D71">
+        <v>2.8345599999999999E-2</v>
+      </c>
+      <c r="E71">
+        <v>4.3208799999999999E-2</v>
+      </c>
+      <c r="F71">
+        <v>3.6447E-2</v>
+      </c>
+      <c r="G71">
+        <v>5.28852E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72">
+        <v>4.1833799999999997E-2</v>
+      </c>
+      <c r="C72">
+        <v>4.2674200000000002E-2</v>
+      </c>
+      <c r="D72">
+        <v>5.5868399999999999E-2</v>
+      </c>
+      <c r="E72">
+        <v>7.5808200000000006E-2</v>
+      </c>
+      <c r="F72">
+        <v>6.9514000000000006E-2</v>
+      </c>
+      <c r="G72">
+        <v>8.8035600000000006E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73">
+        <v>0.69482239999999995</v>
+      </c>
+      <c r="C73">
+        <v>0.900339</v>
+      </c>
+      <c r="D73">
+        <v>0.97992199999999996</v>
+      </c>
+      <c r="E73">
+        <v>0.98499700000000001</v>
+      </c>
+      <c r="F73">
+        <v>0.981267</v>
+      </c>
+      <c r="G73">
+        <v>0.98734120000000003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74">
+        <v>4.9487999999999997E-3</v>
+      </c>
+      <c r="C74">
+        <v>2.1488400000000001E-2</v>
+      </c>
+      <c r="D74">
+        <v>4.1981600000000001E-2</v>
+      </c>
+      <c r="E74">
+        <v>5.9337000000000001E-2</v>
+      </c>
+      <c r="F74">
+        <v>5.2799400000000003E-2</v>
+      </c>
+      <c r="G74">
+        <v>7.0253800000000005E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75">
+        <v>4.4086800000000002E-2</v>
+      </c>
+      <c r="C75">
+        <v>1.53002E-2</v>
+      </c>
+      <c r="D75">
+        <v>9.0545999999999995E-3</v>
+      </c>
+      <c r="E75">
+        <v>1.07686E-2</v>
+      </c>
+      <c r="F75">
+        <v>1.0799400000000001E-2</v>
+      </c>
+      <c r="G75">
+        <v>1.16338E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76">
+        <v>5.1340000000000001E-4</v>
+      </c>
+      <c r="C76">
+        <v>6.4574000000000003E-3</v>
+      </c>
+      <c r="D76">
+        <v>2.7100599999999999E-2</v>
+      </c>
+      <c r="E76">
+        <v>4.1617800000000003E-2</v>
+      </c>
+      <c r="F76">
+        <v>3.5036400000000002E-2</v>
+      </c>
+      <c r="G76">
+        <v>5.1120400000000003E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77">
+        <v>7.7460600000000004E-2</v>
+      </c>
+      <c r="C77">
+        <v>4.6671600000000001E-2</v>
+      </c>
+      <c r="D77">
+        <v>5.6863400000000001E-2</v>
+      </c>
+      <c r="E77">
+        <v>7.7052399999999993E-2</v>
+      </c>
+      <c r="F77">
+        <v>7.0552799999999999E-2</v>
+      </c>
+      <c r="G77">
+        <v>8.9382799999999998E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/simulation results/CI results.xlsx
+++ b/simulation results/CI results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xijuan/local-fit-indices2/simulation results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F95972B-AEAB-6B4E-9D5A-81D084230622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E008EA4A-527A-5041-AF94-543192AAAE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" activeTab="7" xr2:uid="{98DFA7B3-F062-B349-9182-48BD3FB1DF62}"/>
+    <workbookView xWindow="-200" yWindow="880" windowWidth="27640" windowHeight="16940" activeTab="5" xr2:uid="{98DFA7B3-F062-B349-9182-48BD3FB1DF62}"/>
   </bookViews>
   <sheets>
     <sheet name="RMSEA orig" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="47">
   <si>
     <t>$n150</t>
   </si>
@@ -127,6 +127,63 @@
   </si>
   <si>
     <t>srmr.ci.upper.adj.str.exp.tri</t>
+  </si>
+  <si>
+    <t>path.mod3  path.mod4  path.mod5</t>
+  </si>
+  <si>
+    <t>0.58252427 0.62580906 0.57139968</t>
+  </si>
+  <si>
+    <t>0.11933657 0.11023463 0.12014563</t>
+  </si>
+  <si>
+    <t>0.08616505 0.07726537 0.09061489</t>
+  </si>
+  <si>
+    <t>0.50680817 0.53504205 0.49699640</t>
+  </si>
+  <si>
+    <t>0.09171005 0.08069684 0.09591510</t>
+  </si>
+  <si>
+    <t>0.06988386 0.05867040 0.07028434</t>
+  </si>
+  <si>
+    <t>path.mod1 p</t>
+  </si>
+  <si>
+    <t>ath.mod2 pat</t>
+  </si>
+  <si>
+    <t>h.mod3 path.mod4 path.mod5</t>
+  </si>
+  <si>
+    <t>0.4222    0.4502    0.4144</t>
+  </si>
+  <si>
+    <t>0.0816    0.0608    0.0830</t>
+  </si>
+  <si>
+    <t>0.0616    0.0472    0.0622</t>
+  </si>
+  <si>
+    <t>0.3752    0.3916    0.3672</t>
+  </si>
+  <si>
+    <t>0.0666    0.0666    0.0748</t>
+  </si>
+  <si>
+    <t>0.0516    0.0536    0.0622</t>
+  </si>
+  <si>
+    <t>0.3602    0.3816    0.3624</t>
+  </si>
+  <si>
+    <t>0.0714    0.0584    0.0716</t>
+  </si>
+  <si>
+    <t>0.0556    0.0482    0.0568</t>
   </si>
 </sst>
 </file>
@@ -480,13 +537,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FA8ABE-56A6-624F-AD7E-E09DC5A56F8D}">
   <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="9" max="9" width="26.1640625" customWidth="1"/>
+    <col min="17" max="17" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
@@ -540,7 +599,7 @@
         <v>8</v>
       </c>
       <c r="M3" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="N3" t="s">
         <v>10</v>
@@ -601,8 +660,8 @@
       <c r="L4">
         <v>0.60760517999999997</v>
       </c>
-      <c r="M4">
-        <v>0.58252426999999996</v>
+      <c r="M4" t="s">
+        <v>29</v>
       </c>
       <c r="N4">
         <v>0.62580910000000001</v>
@@ -666,8 +725,8 @@
       <c r="L5">
         <v>0.12176375</v>
       </c>
-      <c r="M5">
-        <v>0.11933657</v>
+      <c r="M5" t="s">
+        <v>30</v>
       </c>
       <c r="N5">
         <v>0.1102346</v>
@@ -702,37 +761,37 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.85720059999999998</v>
+        <v>0.8559871</v>
       </c>
       <c r="C6">
-        <v>0.8713592</v>
+        <v>0.87014559999999996</v>
       </c>
       <c r="D6">
-        <v>0.85578480000000001</v>
+        <v>0.85376209999999997</v>
       </c>
       <c r="E6">
-        <v>0.8658981</v>
+        <v>0.86124599999999996</v>
       </c>
       <c r="F6">
-        <v>0.87115699999999996</v>
+        <v>0.86974110000000004</v>
       </c>
       <c r="G6">
-        <v>0.85093039999999998</v>
+        <v>0.8487055</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
       </c>
       <c r="J6">
-        <v>6.8972489999999997E-2</v>
+        <v>7.5040449999999995E-2</v>
       </c>
       <c r="K6">
-        <v>5.6027510000000003E-2</v>
+        <v>6.1488670000000002E-2</v>
       </c>
       <c r="L6">
-        <v>8.4546930000000006E-2</v>
-      </c>
-      <c r="M6">
-        <v>7.9490290000000005E-2</v>
+        <v>8.8389969999999998E-2</v>
+      </c>
+      <c r="M6" t="s">
+        <v>31</v>
       </c>
       <c r="N6">
         <v>7.3017799999999994E-2</v>
@@ -744,22 +803,22 @@
         <v>14</v>
       </c>
       <c r="R6">
-        <v>7.3826860800000005E-2</v>
+        <v>6.8972491900000002E-2</v>
       </c>
       <c r="S6">
-        <v>7.2613268999999994E-2</v>
+        <v>6.8365696000000004E-2</v>
       </c>
       <c r="T6">
-        <v>5.9668279999999997E-2</v>
+        <v>5.7847900000000001E-2</v>
       </c>
       <c r="U6">
-        <v>5.4611649999999998E-2</v>
+        <v>5.2588999999999997E-2</v>
       </c>
       <c r="V6">
-        <v>5.5825239999999998E-2</v>
+        <v>5.2993529999999997E-2</v>
       </c>
       <c r="W6">
-        <v>6.25E-2</v>
+        <v>6.0679610000000002E-2</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
@@ -802,7 +861,7 @@
         <v>8</v>
       </c>
       <c r="M9" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="N9" t="s">
         <v>10</v>
@@ -863,8 +922,8 @@
       <c r="L10">
         <v>0.60760517999999997</v>
       </c>
-      <c r="M10">
-        <v>0.58252426999999996</v>
+      <c r="M10" t="s">
+        <v>29</v>
       </c>
       <c r="N10">
         <v>0.62580910000000001</v>
@@ -928,8 +987,8 @@
       <c r="L11">
         <v>0.12176375</v>
       </c>
-      <c r="M11">
-        <v>0.11933657</v>
+      <c r="M11" t="s">
+        <v>30</v>
       </c>
       <c r="N11">
         <v>0.1102346</v>
@@ -964,37 +1023,37 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.85720059999999998</v>
+        <v>0.8559871</v>
       </c>
       <c r="C12">
-        <v>0.8713592</v>
+        <v>0.87014559999999996</v>
       </c>
       <c r="D12">
-        <v>0.85578480000000001</v>
+        <v>0.85376209999999997</v>
       </c>
       <c r="E12">
-        <v>0.8658981</v>
+        <v>0.86124599999999996</v>
       </c>
       <c r="F12">
-        <v>0.87115699999999996</v>
+        <v>0.86974110000000004</v>
       </c>
       <c r="G12">
-        <v>0.85093039999999998</v>
+        <v>0.8487055</v>
       </c>
       <c r="I12" t="s">
         <v>14</v>
       </c>
       <c r="J12">
-        <v>6.8972489999999997E-2</v>
+        <v>7.5040449999999995E-2</v>
       </c>
       <c r="K12">
-        <v>5.6027510000000003E-2</v>
+        <v>6.1488670000000002E-2</v>
       </c>
       <c r="L12">
-        <v>8.4546930000000006E-2</v>
-      </c>
-      <c r="M12">
-        <v>7.9490290000000005E-2</v>
+        <v>8.8389969999999998E-2</v>
+      </c>
+      <c r="M12" t="s">
+        <v>31</v>
       </c>
       <c r="N12">
         <v>7.3017799999999994E-2</v>
@@ -1006,22 +1065,22 @@
         <v>14</v>
       </c>
       <c r="R12">
-        <v>7.3826860800000005E-2</v>
+        <v>6.8972491900000002E-2</v>
       </c>
       <c r="S12">
-        <v>7.2613268999999994E-2</v>
+        <v>6.8365696000000004E-2</v>
       </c>
       <c r="T12">
-        <v>5.9668279999999997E-2</v>
+        <v>5.7847900000000001E-2</v>
       </c>
       <c r="U12">
-        <v>5.4611649999999998E-2</v>
+        <v>5.2588999999999997E-2</v>
       </c>
       <c r="V12">
-        <v>5.5825239999999998E-2</v>
+        <v>5.2993529999999997E-2</v>
       </c>
       <c r="W12">
-        <v>6.25E-2</v>
+        <v>6.0679610000000002E-2</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
@@ -1064,7 +1123,7 @@
         <v>8</v>
       </c>
       <c r="M15" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="N15" t="s">
         <v>10</v>
@@ -1125,8 +1184,8 @@
       <c r="L16">
         <v>0.51702042000000004</v>
       </c>
-      <c r="M16">
-        <v>0.50680817</v>
+      <c r="M16" t="s">
+        <v>32</v>
       </c>
       <c r="N16">
         <v>0.53504205000000005</v>
@@ -1190,8 +1249,8 @@
       <c r="L17">
         <v>9.4913899999999995E-2</v>
       </c>
-      <c r="M17">
-        <v>9.1710050000000001E-2</v>
+      <c r="M17" t="s">
+        <v>33</v>
       </c>
       <c r="N17">
         <v>8.0696840000000006E-2</v>
@@ -1226,37 +1285,37 @@
         <v>14</v>
       </c>
       <c r="B18">
-        <v>0.88105730000000004</v>
+        <v>0.87865439999999995</v>
       </c>
       <c r="C18">
-        <v>0.89187019999999995</v>
+        <v>0.89166999999999996</v>
       </c>
       <c r="D18">
-        <v>0.87785340000000001</v>
+        <v>0.87665199999999999</v>
       </c>
       <c r="E18">
-        <v>0.88566279999999997</v>
+        <v>0.88185820000000004</v>
       </c>
       <c r="F18">
-        <v>0.89106929999999995</v>
+        <v>0.88906689999999999</v>
       </c>
       <c r="G18">
-        <v>0.87745289999999998</v>
+        <v>0.87464960000000003</v>
       </c>
       <c r="I18" t="s">
         <v>14</v>
       </c>
       <c r="J18">
-        <v>5.6067279999999997E-2</v>
+        <v>6.0672810000000001E-2</v>
       </c>
       <c r="K18">
-        <v>4.245094E-2</v>
+        <v>4.505406E-2</v>
       </c>
       <c r="L18">
-        <v>7.088506E-2</v>
-      </c>
-      <c r="M18">
-        <v>6.5879049999999995E-2</v>
+        <v>7.2286740000000002E-2</v>
+      </c>
+      <c r="M18" t="s">
+        <v>34</v>
       </c>
       <c r="N18">
         <v>5.6067279999999997E-2</v>
@@ -1268,22 +1327,22 @@
         <v>14</v>
       </c>
       <c r="R18">
-        <v>6.2875450499999999E-2</v>
+        <v>6.0672807400000001E-2</v>
       </c>
       <c r="S18">
-        <v>6.5678815000000002E-2</v>
+        <v>6.3275930999999994E-2</v>
       </c>
       <c r="T18">
-        <v>5.1261510000000003E-2</v>
+        <v>5.1061269999999999E-2</v>
       </c>
       <c r="U18">
-        <v>4.8458149999999998E-2</v>
+        <v>4.8257910000000001E-2</v>
       </c>
       <c r="V18">
-        <v>5.2863439999999998E-2</v>
+        <v>5.2262719999999999E-2</v>
       </c>
       <c r="W18">
-        <v>5.5266320000000001E-2</v>
+        <v>5.5066080000000003E-2</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
@@ -1320,13 +1379,13 @@
         <v>6</v>
       </c>
       <c r="K21" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="L21" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="M21" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="N21" t="s">
         <v>10</v>
@@ -1387,8 +1446,8 @@
       <c r="L22">
         <v>0.437</v>
       </c>
-      <c r="M22">
-        <v>0.42220000000000002</v>
+      <c r="M22" t="s">
+        <v>38</v>
       </c>
       <c r="N22">
         <v>0.45019999999999999</v>
@@ -1452,8 +1511,8 @@
       <c r="L23">
         <v>7.3400000000000007E-2</v>
       </c>
-      <c r="M23">
-        <v>8.1600000000000006E-2</v>
+      <c r="M23" t="s">
+        <v>39</v>
       </c>
       <c r="N23">
         <v>6.08E-2</v>
@@ -1488,37 +1547,37 @@
         <v>14</v>
       </c>
       <c r="B24">
-        <v>0.88360000000000005</v>
+        <v>0.88480000000000003</v>
       </c>
       <c r="C24">
-        <v>0.90480000000000005</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="D24">
-        <v>0.88739999999999997</v>
+        <v>0.88660000000000005</v>
       </c>
       <c r="E24">
-        <v>0.88600000000000001</v>
+        <v>0.88480000000000003</v>
       </c>
       <c r="F24">
-        <v>0.90480000000000005</v>
+        <v>0.90280000000000005</v>
       </c>
       <c r="G24">
-        <v>0.88</v>
+        <v>0.87880000000000003</v>
       </c>
       <c r="I24" t="s">
         <v>14</v>
       </c>
       <c r="J24">
-        <v>5.6800000000000003E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="K24">
-        <v>3.6999999999999998E-2</v>
+        <v>3.8199999999999998E-2</v>
       </c>
       <c r="L24">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="M24">
-        <v>6.0400000000000002E-2</v>
+        <v>6.0199999999999997E-2</v>
+      </c>
+      <c r="M24" t="s">
+        <v>40</v>
       </c>
       <c r="N24">
         <v>4.4999999999999998E-2</v>
@@ -1530,10 +1589,10 @@
         <v>14</v>
       </c>
       <c r="R24">
-        <v>5.96E-2</v>
+        <v>5.7200000000000001E-2</v>
       </c>
       <c r="S24">
-        <v>5.8200000000000002E-2</v>
+        <v>5.7799999999999997E-2</v>
       </c>
       <c r="T24">
         <v>5.3199999999999997E-2</v>
@@ -1542,7 +1601,7 @@
         <v>5.3600000000000002E-2</v>
       </c>
       <c r="V24">
-        <v>5.0200000000000002E-2</v>
+        <v>0.05</v>
       </c>
       <c r="W24">
         <v>5.8999999999999997E-2</v>
@@ -1582,13 +1641,13 @@
         <v>6</v>
       </c>
       <c r="K27" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="L27" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="M27" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="N27" t="s">
         <v>10</v>
@@ -1649,8 +1708,8 @@
       <c r="L28">
         <v>0.38040000000000002</v>
       </c>
-      <c r="M28">
-        <v>0.37519999999999998</v>
+      <c r="M28" t="s">
+        <v>41</v>
       </c>
       <c r="N28">
         <v>0.3916</v>
@@ -1714,8 +1773,8 @@
       <c r="L29">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="M29">
-        <v>6.6600000000000006E-2</v>
+      <c r="M29" t="s">
+        <v>42</v>
       </c>
       <c r="N29">
         <v>6.6600000000000006E-2</v>
@@ -1750,37 +1809,37 @@
         <v>14</v>
       </c>
       <c r="B30">
-        <v>0.88560000000000005</v>
+        <v>0.88460000000000005</v>
       </c>
       <c r="C30">
-        <v>0.91159999999999997</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="D30">
-        <v>0.88160000000000005</v>
+        <v>0.88080000000000003</v>
       </c>
       <c r="E30">
-        <v>0.89780000000000004</v>
+        <v>0.89759999999999995</v>
       </c>
       <c r="F30">
-        <v>0.89659999999999995</v>
+        <v>0.8962</v>
       </c>
       <c r="G30">
-        <v>0.87919999999999998</v>
+        <v>0.87819999999999998</v>
       </c>
       <c r="I30" t="s">
         <v>14</v>
       </c>
       <c r="J30">
-        <v>5.6599999999999998E-2</v>
+        <v>5.8400000000000001E-2</v>
       </c>
       <c r="K30">
-        <v>3.3599999999999998E-2</v>
+        <v>3.44E-2</v>
       </c>
       <c r="L30">
-        <v>6.2199999999999998E-2</v>
-      </c>
-      <c r="M30">
-        <v>5.1400000000000001E-2</v>
+        <v>6.3E-2</v>
+      </c>
+      <c r="M30" t="s">
+        <v>43</v>
       </c>
       <c r="N30">
         <v>5.3199999999999997E-2</v>
@@ -1792,10 +1851,10 @@
         <v>14</v>
       </c>
       <c r="R30">
-        <v>5.7799999999999997E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="S30">
-        <v>5.4800000000000001E-2</v>
+        <v>5.4600000000000003E-2</v>
       </c>
       <c r="T30">
         <v>5.62E-2</v>
@@ -1844,13 +1903,13 @@
         <v>6</v>
       </c>
       <c r="K33" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="L33" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="M33" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="N33" t="s">
         <v>10</v>
@@ -1911,8 +1970,8 @@
       <c r="L34">
         <v>0.378</v>
       </c>
-      <c r="M34">
-        <v>0.36020000000000002</v>
+      <c r="M34" t="s">
+        <v>44</v>
       </c>
       <c r="N34">
         <v>0.38159999999999999</v>
@@ -1976,8 +2035,8 @@
       <c r="L35">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="M35">
-        <v>7.1400000000000005E-2</v>
+      <c r="M35" t="s">
+        <v>45</v>
       </c>
       <c r="N35">
         <v>5.8400000000000001E-2</v>
@@ -2018,31 +2077,31 @@
         <v>0.90100000000000002</v>
       </c>
       <c r="D36">
-        <v>0.89119999999999999</v>
+        <v>0.89059999999999995</v>
       </c>
       <c r="E36">
-        <v>0.89239999999999997</v>
+        <v>0.89139999999999997</v>
       </c>
       <c r="F36">
-        <v>0.90039999999999998</v>
+        <v>0.89939999999999998</v>
       </c>
       <c r="G36">
-        <v>0.89080000000000004</v>
+        <v>0.89019999999999999</v>
       </c>
       <c r="I36" t="s">
         <v>14</v>
       </c>
       <c r="J36">
-        <v>5.1999999999999998E-2</v>
+        <v>5.2600000000000001E-2</v>
       </c>
       <c r="K36">
-        <v>4.1000000000000002E-2</v>
+        <v>4.1399999999999999E-2</v>
       </c>
       <c r="L36">
-        <v>5.7799999999999997E-2</v>
-      </c>
-      <c r="M36">
-        <v>5.4600000000000003E-2</v>
+        <v>5.8200000000000002E-2</v>
+      </c>
+      <c r="M36" t="s">
+        <v>46</v>
       </c>
       <c r="N36">
         <v>4.7600000000000003E-2</v>
@@ -2054,22 +2113,22 @@
         <v>14</v>
       </c>
       <c r="R36">
-        <v>5.4800000000000001E-2</v>
+        <v>5.4199999999999998E-2</v>
       </c>
       <c r="S36">
-        <v>5.8000000000000003E-2</v>
+        <v>5.7599999999999998E-2</v>
       </c>
       <c r="T36">
-        <v>5.0999999999999997E-2</v>
+        <v>5.1200000000000002E-2</v>
       </c>
       <c r="U36">
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="V36">
-        <v>5.1999999999999998E-2</v>
+        <v>5.2400000000000002E-2</v>
       </c>
       <c r="W36">
-        <v>5.2600000000000001E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2081,13 +2140,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C0D6F3-DF56-CB4B-8B63-EE9A098F541C}">
   <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2:W36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="9" max="9" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
@@ -2303,58 +2363,58 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.88700000000000001</v>
+        <v>0.88580000000000003</v>
       </c>
       <c r="C6">
-        <v>0.90880000000000005</v>
+        <v>0.90780000000000005</v>
       </c>
       <c r="D6">
-        <v>0.88560000000000005</v>
+        <v>0.88519999999999999</v>
       </c>
       <c r="E6">
-        <v>0.90039999999999998</v>
+        <v>0.9</v>
       </c>
       <c r="F6">
-        <v>0.89659999999999995</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="G6">
-        <v>0.9</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
       </c>
       <c r="J6">
-        <v>6.1600000000000002E-2</v>
+        <v>6.3200000000000006E-2</v>
       </c>
       <c r="K6">
-        <v>4.58E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="L6">
-        <v>5.8999999999999997E-2</v>
+        <v>5.9400000000000001E-2</v>
       </c>
       <c r="M6">
-        <v>4.9599999999999998E-2</v>
+        <v>4.9799999999999997E-2</v>
       </c>
       <c r="N6">
-        <v>5.4399999999999997E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="O6">
-        <v>5.0999999999999997E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="Q6" t="s">
         <v>14</v>
       </c>
       <c r="R6">
-        <v>5.1400000000000001E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="S6">
-        <v>4.5400000000000003E-2</v>
+        <v>4.5199999999999997E-2</v>
       </c>
       <c r="T6">
         <v>5.5399999999999998E-2</v>
       </c>
       <c r="U6">
-        <v>0.05</v>
+        <v>5.0200000000000002E-2</v>
       </c>
       <c r="V6">
         <v>4.9000000000000002E-2</v>
@@ -2565,58 +2625,58 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.88700000000000001</v>
+        <v>0.88580000000000003</v>
       </c>
       <c r="C12">
-        <v>0.90880000000000005</v>
+        <v>0.90780000000000005</v>
       </c>
       <c r="D12">
-        <v>0.88560000000000005</v>
+        <v>0.88519999999999999</v>
       </c>
       <c r="E12">
-        <v>0.90039999999999998</v>
+        <v>0.9</v>
       </c>
       <c r="F12">
-        <v>0.89659999999999995</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="G12">
-        <v>0.9</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="I12" t="s">
         <v>14</v>
       </c>
       <c r="J12">
-        <v>6.1600000000000002E-2</v>
+        <v>6.3200000000000006E-2</v>
       </c>
       <c r="K12">
-        <v>4.58E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="L12">
-        <v>5.8999999999999997E-2</v>
+        <v>5.9400000000000001E-2</v>
       </c>
       <c r="M12">
-        <v>4.9599999999999998E-2</v>
+        <v>4.9799999999999997E-2</v>
       </c>
       <c r="N12">
-        <v>5.4399999999999997E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="O12">
-        <v>5.0999999999999997E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="Q12" t="s">
         <v>14</v>
       </c>
       <c r="R12">
-        <v>5.1400000000000001E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="S12">
-        <v>4.5400000000000003E-2</v>
+        <v>4.5199999999999997E-2</v>
       </c>
       <c r="T12">
         <v>5.5399999999999998E-2</v>
       </c>
       <c r="U12">
-        <v>0.05</v>
+        <v>5.0200000000000002E-2</v>
       </c>
       <c r="V12">
         <v>4.9000000000000002E-2</v>
@@ -2827,52 +2887,52 @@
         <v>14</v>
       </c>
       <c r="B18">
-        <v>0.89659999999999995</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="C18">
-        <v>0.91579999999999995</v>
+        <v>0.91520000000000001</v>
       </c>
       <c r="D18">
-        <v>0.89559999999999995</v>
+        <v>0.89480000000000004</v>
       </c>
       <c r="E18">
-        <v>0.90859999999999996</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="F18">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="G18">
         <v>0.90380000000000005</v>
-      </c>
-      <c r="G18">
-        <v>0.9042</v>
       </c>
       <c r="I18" t="s">
         <v>14</v>
       </c>
       <c r="J18">
-        <v>5.4600000000000003E-2</v>
+        <v>5.5399999999999998E-2</v>
       </c>
       <c r="K18">
-        <v>0.04</v>
+        <v>4.0800000000000003E-2</v>
       </c>
       <c r="L18">
-        <v>5.4800000000000001E-2</v>
+        <v>5.5599999999999997E-2</v>
       </c>
       <c r="M18">
-        <v>4.7800000000000002E-2</v>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="N18">
-        <v>4.82E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="O18">
-        <v>4.7399999999999998E-2</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="Q18" t="s">
         <v>14</v>
       </c>
       <c r="R18">
-        <v>4.8800000000000003E-2</v>
+        <v>4.8599999999999997E-2</v>
       </c>
       <c r="S18">
-        <v>4.4200000000000003E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="T18">
         <v>4.9599999999999998E-2</v>
@@ -2884,7 +2944,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="W18">
-        <v>4.8399999999999999E-2</v>
+        <v>4.8599999999999997E-2</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
@@ -3089,19 +3149,19 @@
         <v>14</v>
       </c>
       <c r="B24">
-        <v>0.89980000000000004</v>
+        <v>0.9002</v>
       </c>
       <c r="C24">
         <v>0.91100000000000003</v>
       </c>
       <c r="D24">
-        <v>0.90080000000000005</v>
+        <v>0.90059999999999996</v>
       </c>
       <c r="E24">
-        <v>0.90980000000000005</v>
+        <v>0.90920000000000001</v>
       </c>
       <c r="F24">
-        <v>0.91279999999999994</v>
+        <v>0.91259999999999997</v>
       </c>
       <c r="G24">
         <v>0.90959999999999996</v>
@@ -3110,19 +3170,19 @@
         <v>14</v>
       </c>
       <c r="J24">
-        <v>5.0200000000000002E-2</v>
+        <v>5.04E-2</v>
       </c>
       <c r="K24">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="L24">
-        <v>5.5399999999999998E-2</v>
+        <v>5.5599999999999997E-2</v>
       </c>
       <c r="M24">
-        <v>4.3799999999999999E-2</v>
+        <v>4.4400000000000002E-2</v>
       </c>
       <c r="N24">
-        <v>4.5600000000000002E-2</v>
+        <v>4.58E-2</v>
       </c>
       <c r="O24">
         <v>4.6600000000000003E-2</v>
@@ -3131,7 +3191,7 @@
         <v>14</v>
       </c>
       <c r="R24">
-        <v>0.05</v>
+        <v>4.9399999999999999E-2</v>
       </c>
       <c r="S24">
         <v>4.7E-2</v>
@@ -3351,49 +3411,49 @@
         <v>14</v>
       </c>
       <c r="B30">
-        <v>0.89180000000000004</v>
+        <v>0.89159999999999995</v>
       </c>
       <c r="C30">
         <v>0.90680000000000005</v>
       </c>
       <c r="D30">
-        <v>0.89780000000000004</v>
+        <v>0.89759999999999995</v>
       </c>
       <c r="E30">
-        <v>0.91</v>
+        <v>0.90980000000000005</v>
       </c>
       <c r="F30">
-        <v>0.90539999999999998</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="G30">
-        <v>0.91239999999999999</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="I30" t="s">
         <v>14</v>
       </c>
       <c r="J30">
-        <v>6.08E-2</v>
+        <v>6.1199999999999997E-2</v>
       </c>
       <c r="K30">
         <v>4.58E-2</v>
       </c>
       <c r="L30">
-        <v>5.2200000000000003E-2</v>
+        <v>5.2400000000000002E-2</v>
       </c>
       <c r="M30">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="N30">
+        <v>4.8800000000000003E-2</v>
+      </c>
+      <c r="O30">
         <v>4.4200000000000003E-2</v>
-      </c>
-      <c r="N30">
-        <v>4.8399999999999999E-2</v>
-      </c>
-      <c r="O30">
-        <v>4.3799999999999999E-2</v>
       </c>
       <c r="Q30" t="s">
         <v>14</v>
       </c>
       <c r="R30">
-        <v>4.7399999999999998E-2</v>
+        <v>4.7199999999999999E-2</v>
       </c>
       <c r="S30">
         <v>4.7399999999999998E-2</v>
@@ -3613,49 +3673,49 @@
         <v>14</v>
       </c>
       <c r="B36">
-        <v>0.88939999999999997</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="C36">
-        <v>0.91020000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="D36">
-        <v>0.8972</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="E36">
-        <v>0.90639999999999998</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="F36">
         <v>0.9052</v>
       </c>
       <c r="G36">
-        <v>0.90759999999999996</v>
+        <v>0.90739999999999998</v>
       </c>
       <c r="I36" t="s">
         <v>14</v>
       </c>
       <c r="J36">
-        <v>5.5E-2</v>
+        <v>5.5599999999999997E-2</v>
       </c>
       <c r="K36">
-        <v>4.36E-2</v>
+        <v>4.3799999999999999E-2</v>
       </c>
       <c r="L36">
-        <v>5.1200000000000002E-2</v>
+        <v>5.1400000000000001E-2</v>
       </c>
       <c r="M36">
-        <v>4.9000000000000002E-2</v>
+        <v>4.9399999999999999E-2</v>
       </c>
       <c r="N36">
         <v>4.48E-2</v>
       </c>
       <c r="O36">
-        <v>4.5600000000000002E-2</v>
+        <v>4.58E-2</v>
       </c>
       <c r="Q36" t="s">
         <v>14</v>
       </c>
       <c r="R36">
-        <v>5.5599999999999997E-2</v>
+        <v>5.5399999999999998E-2</v>
       </c>
       <c r="S36">
         <v>4.6199999999999998E-2</v>
@@ -6976,13 +7036,13 @@
         <v>0.93729770000000001</v>
       </c>
       <c r="E4">
-        <v>0.89623790000000003</v>
+        <v>0.89603560000000004</v>
       </c>
       <c r="F4">
         <v>0.92637539999999996</v>
       </c>
       <c r="G4">
-        <v>0.88632690000000003</v>
+        <v>0.88531550000000003</v>
       </c>
       <c r="I4" t="s">
         <v>13</v>
@@ -6997,13 +7057,13 @@
         <v>5.0161810000000001E-2</v>
       </c>
       <c r="M4">
-        <v>8.3333329999999997E-2</v>
+        <v>8.3737859999999997E-2</v>
       </c>
       <c r="N4">
         <v>5.5016179999999998E-2</v>
       </c>
       <c r="O4">
-        <v>8.7985439999999998E-2</v>
+        <v>8.8996759999999994E-2</v>
       </c>
       <c r="Q4" t="s">
         <v>13</v>
@@ -7018,7 +7078,7 @@
         <v>1.254045E-2</v>
       </c>
       <c r="U4">
-        <v>2.04288E-2</v>
+        <v>2.0226540000000001E-2</v>
       </c>
       <c r="V4">
         <v>1.8608409999999999E-2</v>
@@ -7041,13 +7101,13 @@
         <v>0.93830910000000001</v>
       </c>
       <c r="E5">
-        <v>0.88733819999999997</v>
+        <v>0.88652909999999996</v>
       </c>
       <c r="F5">
         <v>0.93042069999999999</v>
       </c>
       <c r="G5">
-        <v>0.87419089999999999</v>
+        <v>0.87398869999999995</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
@@ -7062,13 +7122,13 @@
         <v>4.9555019999999998E-2</v>
       </c>
       <c r="M5">
-        <v>9.1828480000000004E-2</v>
+        <v>9.2637540000000004E-2</v>
       </c>
       <c r="N5">
         <v>5.1982199999999999E-2</v>
       </c>
       <c r="O5">
-        <v>0.10093042000000001</v>
+        <v>0.10133494999999999</v>
       </c>
       <c r="Q5" t="s">
         <v>14</v>
@@ -7089,7 +7149,7 @@
         <v>1.7597089999999999E-2</v>
       </c>
       <c r="W5">
-        <v>2.487864E-2</v>
+        <v>2.4676380000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
@@ -7173,13 +7233,13 @@
         <v>0.93729770000000001</v>
       </c>
       <c r="E9">
-        <v>0.89623790000000003</v>
+        <v>0.89603560000000004</v>
       </c>
       <c r="F9">
         <v>0.92637539999999996</v>
       </c>
       <c r="G9">
-        <v>0.88632690000000003</v>
+        <v>0.88531550000000003</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
@@ -7194,13 +7254,13 @@
         <v>5.0161810000000001E-2</v>
       </c>
       <c r="M9">
-        <v>8.3333329999999997E-2</v>
+        <v>8.3737859999999997E-2</v>
       </c>
       <c r="N9">
         <v>5.5016179999999998E-2</v>
       </c>
       <c r="O9">
-        <v>8.7985439999999998E-2</v>
+        <v>8.8996759999999994E-2</v>
       </c>
       <c r="Q9" t="s">
         <v>13</v>
@@ -7215,7 +7275,7 @@
         <v>1.254045E-2</v>
       </c>
       <c r="U9">
-        <v>2.04288E-2</v>
+        <v>2.0226540000000001E-2</v>
       </c>
       <c r="V9">
         <v>1.8608409999999999E-2</v>
@@ -7238,13 +7298,13 @@
         <v>0.93830910000000001</v>
       </c>
       <c r="E10">
-        <v>0.88733819999999997</v>
+        <v>0.88652909999999996</v>
       </c>
       <c r="F10">
         <v>0.93042069999999999</v>
       </c>
       <c r="G10">
-        <v>0.87419089999999999</v>
+        <v>0.87398869999999995</v>
       </c>
       <c r="I10" t="s">
         <v>14</v>
@@ -7259,13 +7319,13 @@
         <v>4.9555019999999998E-2</v>
       </c>
       <c r="M10">
-        <v>9.1828480000000004E-2</v>
+        <v>9.2637540000000004E-2</v>
       </c>
       <c r="N10">
         <v>5.1982199999999999E-2</v>
       </c>
       <c r="O10">
-        <v>0.10093042000000001</v>
+        <v>0.10133494999999999</v>
       </c>
       <c r="Q10" t="s">
         <v>14</v>
@@ -7286,7 +7346,7 @@
         <v>1.7597089999999999E-2</v>
       </c>
       <c r="W10">
-        <v>2.487864E-2</v>
+        <v>2.4676380000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
@@ -7364,19 +7424,19 @@
         <v>0.99879859999999998</v>
       </c>
       <c r="C14">
-        <v>0.99239089999999996</v>
+        <v>0.99259109999999995</v>
       </c>
       <c r="D14">
-        <v>0.9014818</v>
+        <v>0.90128149999999996</v>
       </c>
       <c r="E14">
-        <v>0.88586299999999996</v>
+        <v>0.88506209999999996</v>
       </c>
       <c r="F14">
-        <v>0.89567479999999999</v>
+        <v>0.89507409999999998</v>
       </c>
       <c r="G14">
-        <v>0.8772527</v>
+        <v>0.87685219999999997</v>
       </c>
       <c r="I14" t="s">
         <v>13</v>
@@ -7388,16 +7448,16 @@
         <v>2.0024029999999999E-4</v>
       </c>
       <c r="L14">
-        <v>8.5502599999999998E-2</v>
+        <v>8.5702840000000002E-2</v>
       </c>
       <c r="M14">
-        <v>8.8906689999999997E-2</v>
+        <v>8.970765E-2</v>
       </c>
       <c r="N14">
-        <v>8.6503800000000006E-2</v>
+        <v>8.7104529999999999E-2</v>
       </c>
       <c r="O14">
-        <v>9.3712450000000003E-2</v>
+        <v>9.4112940000000006E-2</v>
       </c>
       <c r="Q14" t="s">
         <v>13</v>
@@ -7406,7 +7466,7 @@
         <v>1.2014416999999999E-3</v>
       </c>
       <c r="S14">
-        <v>7.4088909999999999E-3</v>
+        <v>7.2086499999999996E-3</v>
       </c>
       <c r="T14">
         <v>1.301562E-2</v>
@@ -7429,19 +7489,19 @@
         <v>0.99919899999999995</v>
       </c>
       <c r="C15">
-        <v>0.99439330000000004</v>
+        <v>0.99459350000000002</v>
       </c>
       <c r="D15">
-        <v>0.8984782</v>
+        <v>0.89747699999999997</v>
       </c>
       <c r="E15">
-        <v>0.88125750000000003</v>
+        <v>0.88025629999999999</v>
       </c>
       <c r="F15">
-        <v>0.89126950000000005</v>
+        <v>0.89066880000000004</v>
       </c>
       <c r="G15">
-        <v>0.87284740000000005</v>
+        <v>0.87264719999999996</v>
       </c>
       <c r="I15" t="s">
         <v>14</v>
@@ -7453,16 +7513,16 @@
         <v>2.0024029999999999E-4</v>
       </c>
       <c r="L15">
-        <v>8.9307170000000005E-2</v>
+        <v>9.0308369999999999E-2</v>
       </c>
       <c r="M15">
-        <v>9.6916299999999997E-2</v>
+        <v>9.7917500000000005E-2</v>
       </c>
       <c r="N15">
-        <v>9.1910290000000006E-2</v>
+        <v>9.2511010000000005E-2</v>
       </c>
       <c r="O15">
-        <v>0.10012014</v>
+        <v>0.10052062</v>
       </c>
       <c r="Q15" t="s">
         <v>14</v>
@@ -7471,7 +7531,7 @@
         <v>8.0096119999999995E-4</v>
       </c>
       <c r="S15">
-        <v>5.4064880000000001E-3</v>
+        <v>5.2062469999999998E-3</v>
       </c>
       <c r="T15">
         <v>1.221466E-2</v>
@@ -7483,7 +7543,7 @@
         <v>1.6820180000000001E-2</v>
       </c>
       <c r="W15">
-        <v>2.7032440000000001E-2</v>
+        <v>2.68322E-2</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
@@ -7564,16 +7624,16 @@
         <v>0.99019999999999997</v>
       </c>
       <c r="D19">
-        <v>0.89200000000000002</v>
+        <v>0.89180000000000004</v>
       </c>
       <c r="E19">
-        <v>0.88639999999999997</v>
+        <v>0.88619999999999999</v>
       </c>
       <c r="F19">
         <v>0.88680000000000003</v>
       </c>
       <c r="G19">
-        <v>0.87880000000000003</v>
+        <v>0.879</v>
       </c>
       <c r="I19" t="s">
         <v>13</v>
@@ -7585,10 +7645,10 @@
         <v>2E-3</v>
       </c>
       <c r="L19">
-        <v>8.9800000000000005E-2</v>
+        <v>0.09</v>
       </c>
       <c r="M19">
-        <v>8.6199999999999999E-2</v>
+        <v>8.6400000000000005E-2</v>
       </c>
       <c r="N19">
         <v>8.9800000000000005E-2</v>
@@ -7615,7 +7675,7 @@
         <v>2.3400000000000001E-2</v>
       </c>
       <c r="W19">
-        <v>3.1E-2</v>
+        <v>3.0800000000000001E-2</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
@@ -7629,13 +7689,13 @@
         <v>0.99039999999999995</v>
       </c>
       <c r="D20">
-        <v>0.88919999999999999</v>
+        <v>0.88939999999999997</v>
       </c>
       <c r="E20">
+        <v>0.88419999999999999</v>
+      </c>
+      <c r="F20">
         <v>0.88400000000000001</v>
-      </c>
-      <c r="F20">
-        <v>0.88439999999999996</v>
       </c>
       <c r="G20">
         <v>0.87719999999999998</v>
@@ -7656,7 +7716,7 @@
         <v>8.9599999999999999E-2</v>
       </c>
       <c r="N20">
-        <v>9.4E-2</v>
+        <v>9.4399999999999998E-2</v>
       </c>
       <c r="O20">
         <v>9.2600000000000002E-2</v>
@@ -7671,10 +7731,10 @@
         <v>7.6E-3</v>
       </c>
       <c r="T20">
-        <v>1.8200000000000001E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="U20">
-        <v>2.64E-2</v>
+        <v>2.6200000000000001E-2</v>
       </c>
       <c r="V20">
         <v>2.1600000000000001E-2</v>
@@ -7764,13 +7824,13 @@
         <v>0.89219999999999999</v>
       </c>
       <c r="E24">
-        <v>0.89339999999999997</v>
+        <v>0.89280000000000004</v>
       </c>
       <c r="F24">
         <v>0.88500000000000001</v>
       </c>
       <c r="G24">
-        <v>0.88839999999999997</v>
+        <v>0.88880000000000003</v>
       </c>
       <c r="I24" t="s">
         <v>13</v>
@@ -7782,10 +7842,10 @@
         <v>1.6E-2</v>
       </c>
       <c r="L24">
-        <v>8.2400000000000001E-2</v>
+        <v>8.2600000000000007E-2</v>
       </c>
       <c r="M24">
-        <v>7.5800000000000006E-2</v>
+        <v>7.6399999999999996E-2</v>
       </c>
       <c r="N24">
         <v>8.3599999999999994E-2</v>
@@ -7803,7 +7863,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="T24">
-        <v>2.5399999999999999E-2</v>
+        <v>2.52E-2</v>
       </c>
       <c r="U24">
         <v>3.0800000000000001E-2</v>
@@ -7812,7 +7872,7 @@
         <v>3.1399999999999997E-2</v>
       </c>
       <c r="W24">
-        <v>3.4599999999999999E-2</v>
+        <v>3.4200000000000001E-2</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
@@ -7829,13 +7889,13 @@
         <v>0.89280000000000004</v>
       </c>
       <c r="E25">
-        <v>0.89400000000000002</v>
+        <v>0.89439999999999997</v>
       </c>
       <c r="F25">
-        <v>0.88619999999999999</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="G25">
-        <v>0.89100000000000001</v>
+        <v>0.89080000000000004</v>
       </c>
       <c r="I25" t="s">
         <v>14</v>
@@ -7853,10 +7913,10 @@
         <v>7.8E-2</v>
       </c>
       <c r="N25">
-        <v>8.4199999999999997E-2</v>
+        <v>8.4400000000000003E-2</v>
       </c>
       <c r="O25">
-        <v>7.5999999999999998E-2</v>
+        <v>7.6200000000000004E-2</v>
       </c>
       <c r="Q25" t="s">
         <v>14</v>
@@ -7871,7 +7931,7 @@
         <v>2.3599999999999999E-2</v>
       </c>
       <c r="U25">
-        <v>2.8000000000000001E-2</v>
+        <v>2.76E-2</v>
       </c>
       <c r="V25">
         <v>2.9600000000000001E-2</v>
@@ -8020,13 +8080,13 @@
         <v>0.99880000000000002</v>
       </c>
       <c r="C30">
-        <v>0.9506</v>
+        <v>0.95079999999999998</v>
       </c>
       <c r="D30">
         <v>0.89700000000000002</v>
       </c>
       <c r="E30">
-        <v>0.89339999999999997</v>
+        <v>0.89319999999999999</v>
       </c>
       <c r="F30">
         <v>0.88400000000000001</v>
@@ -8047,7 +8107,7 @@
         <v>7.7600000000000002E-2</v>
       </c>
       <c r="M30">
-        <v>7.46E-2</v>
+        <v>7.4800000000000005E-2</v>
       </c>
       <c r="N30">
         <v>8.5400000000000004E-2</v>
@@ -8062,7 +8122,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="S30">
-        <v>1.2800000000000001E-2</v>
+        <v>1.26E-2</v>
       </c>
       <c r="T30">
         <v>2.5399999999999999E-2</v>
@@ -8086,11 +8146,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02ADD9EF-6BBF-E642-86B1-D69169E4380E}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:W30"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -8181,16 +8244,16 @@
         <v>0.98540000000000005</v>
       </c>
       <c r="D4">
-        <v>0.87980000000000003</v>
+        <v>0.87919999999999998</v>
       </c>
       <c r="E4">
-        <v>0.88260000000000005</v>
+        <v>0.88219999999999998</v>
       </c>
       <c r="F4">
-        <v>0.88639999999999997</v>
+        <v>0.88660000000000005</v>
       </c>
       <c r="G4">
-        <v>0.87939999999999996</v>
+        <v>0.87919999999999998</v>
       </c>
       <c r="I4" t="s">
         <v>13</v>
@@ -8202,16 +8265,16 @@
         <v>2.8E-3</v>
       </c>
       <c r="L4">
-        <v>8.7999999999999995E-2</v>
+        <v>8.8599999999999998E-2</v>
       </c>
       <c r="M4">
+        <v>8.3400000000000002E-2</v>
+      </c>
+      <c r="N4">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="N4">
-        <v>8.2799999999999999E-2</v>
-      </c>
       <c r="O4">
-        <v>0.08</v>
+        <v>8.0199999999999994E-2</v>
       </c>
       <c r="Q4" t="s">
         <v>13</v>
@@ -8229,7 +8292,7 @@
         <v>3.44E-2</v>
       </c>
       <c r="V4">
-        <v>3.0800000000000001E-2</v>
+        <v>3.04E-2</v>
       </c>
       <c r="W4">
         <v>4.0599999999999997E-2</v>
@@ -8240,22 +8303,22 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>0.995</v>
+        <v>0.99539999999999995</v>
       </c>
       <c r="C5">
         <v>0.98280000000000001</v>
       </c>
       <c r="D5">
-        <v>0.877</v>
+        <v>0.87660000000000005</v>
       </c>
       <c r="E5">
-        <v>0.87680000000000002</v>
+        <v>0.87639999999999996</v>
       </c>
       <c r="F5">
-        <v>0.87880000000000003</v>
+        <v>0.87839999999999996</v>
       </c>
       <c r="G5">
-        <v>0.86960000000000004</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
@@ -8267,22 +8330,22 @@
         <v>4.1999999999999997E-3</v>
       </c>
       <c r="L5">
-        <v>9.0999999999999998E-2</v>
+        <v>9.1399999999999995E-2</v>
       </c>
       <c r="M5">
-        <v>8.6800000000000002E-2</v>
+        <v>8.72E-2</v>
       </c>
       <c r="N5">
-        <v>8.6800000000000002E-2</v>
+        <v>8.72E-2</v>
       </c>
       <c r="O5">
-        <v>8.4199999999999997E-2</v>
+        <v>8.48E-2</v>
       </c>
       <c r="Q5" t="s">
         <v>14</v>
       </c>
       <c r="R5">
-        <v>5.0000000000000001E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="S5">
         <v>1.2999999999999999E-2</v>
@@ -8378,16 +8441,16 @@
         <v>0.98540000000000005</v>
       </c>
       <c r="D9">
-        <v>0.87980000000000003</v>
+        <v>0.87919999999999998</v>
       </c>
       <c r="E9">
-        <v>0.88260000000000005</v>
+        <v>0.88219999999999998</v>
       </c>
       <c r="F9">
-        <v>0.88639999999999997</v>
+        <v>0.88660000000000005</v>
       </c>
       <c r="G9">
-        <v>0.87939999999999996</v>
+        <v>0.87919999999999998</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
@@ -8399,16 +8462,16 @@
         <v>2.8E-3</v>
       </c>
       <c r="L9">
-        <v>8.7999999999999995E-2</v>
+        <v>8.8599999999999998E-2</v>
       </c>
       <c r="M9">
+        <v>8.3400000000000002E-2</v>
+      </c>
+      <c r="N9">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="N9">
-        <v>8.2799999999999999E-2</v>
-      </c>
       <c r="O9">
-        <v>0.08</v>
+        <v>8.0199999999999994E-2</v>
       </c>
       <c r="Q9" t="s">
         <v>13</v>
@@ -8426,7 +8489,7 @@
         <v>3.44E-2</v>
       </c>
       <c r="V9">
-        <v>3.0800000000000001E-2</v>
+        <v>3.04E-2</v>
       </c>
       <c r="W9">
         <v>4.0599999999999997E-2</v>
@@ -8437,22 +8500,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.995</v>
+        <v>0.99539999999999995</v>
       </c>
       <c r="C10">
         <v>0.98280000000000001</v>
       </c>
       <c r="D10">
-        <v>0.877</v>
+        <v>0.87660000000000005</v>
       </c>
       <c r="E10">
-        <v>0.87680000000000002</v>
+        <v>0.87639999999999996</v>
       </c>
       <c r="F10">
-        <v>0.87880000000000003</v>
+        <v>0.87839999999999996</v>
       </c>
       <c r="G10">
-        <v>0.86960000000000004</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="I10" t="s">
         <v>14</v>
@@ -8464,22 +8527,22 @@
         <v>4.1999999999999997E-3</v>
       </c>
       <c r="L10">
-        <v>9.0999999999999998E-2</v>
+        <v>9.1399999999999995E-2</v>
       </c>
       <c r="M10">
-        <v>8.6800000000000002E-2</v>
+        <v>8.72E-2</v>
       </c>
       <c r="N10">
-        <v>8.6800000000000002E-2</v>
+        <v>8.72E-2</v>
       </c>
       <c r="O10">
-        <v>8.4199999999999997E-2</v>
+        <v>8.48E-2</v>
       </c>
       <c r="Q10" t="s">
         <v>14</v>
       </c>
       <c r="R10">
-        <v>5.0000000000000001E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="S10">
         <v>1.2999999999999999E-2</v>
@@ -8575,16 +8638,16 @@
         <v>0.9748</v>
       </c>
       <c r="D14">
-        <v>0.88800000000000001</v>
+        <v>0.88780000000000003</v>
       </c>
       <c r="E14">
-        <v>0.88239999999999996</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="F14">
-        <v>0.88919999999999999</v>
+        <v>0.88939999999999997</v>
       </c>
       <c r="G14">
-        <v>0.88519999999999999</v>
+        <v>0.88480000000000003</v>
       </c>
       <c r="I14" t="s">
         <v>13</v>
@@ -8596,16 +8659,16 @@
         <v>1.38E-2</v>
       </c>
       <c r="L14">
-        <v>8.0799999999999997E-2</v>
+        <v>8.1199999999999994E-2</v>
       </c>
       <c r="M14">
-        <v>7.9600000000000004E-2</v>
+        <v>0.08</v>
       </c>
       <c r="N14">
         <v>7.8600000000000003E-2</v>
       </c>
       <c r="O14">
-        <v>7.5200000000000003E-2</v>
+        <v>7.5800000000000006E-2</v>
       </c>
       <c r="Q14" t="s">
         <v>13</v>
@@ -8617,16 +8680,16 @@
         <v>1.14E-2</v>
       </c>
       <c r="T14">
-        <v>3.1199999999999999E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="U14">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="V14">
-        <v>3.2199999999999999E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="W14">
-        <v>3.9600000000000003E-2</v>
+        <v>3.9399999999999998E-2</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
@@ -8640,7 +8703,7 @@
         <v>0.97260000000000002</v>
       </c>
       <c r="D15">
-        <v>0.88500000000000001</v>
+        <v>0.88480000000000003</v>
       </c>
       <c r="E15">
         <v>0.88080000000000003</v>
@@ -8649,7 +8712,7 @@
         <v>0.88700000000000001</v>
       </c>
       <c r="G15">
-        <v>0.88239999999999996</v>
+        <v>0.88219999999999998</v>
       </c>
       <c r="I15" t="s">
         <v>14</v>
@@ -8661,16 +8724,16 @@
         <v>1.46E-2</v>
       </c>
       <c r="L15">
-        <v>8.14E-2</v>
+        <v>8.1600000000000006E-2</v>
       </c>
       <c r="M15">
         <v>0.08</v>
       </c>
       <c r="N15">
-        <v>7.9000000000000001E-2</v>
+        <v>7.9200000000000007E-2</v>
       </c>
       <c r="O15">
-        <v>7.4800000000000005E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="Q15" t="s">
         <v>14</v>
@@ -8688,7 +8751,7 @@
         <v>3.9199999999999999E-2</v>
       </c>
       <c r="V15">
-        <v>3.4000000000000002E-2</v>
+        <v>3.3799999999999997E-2</v>
       </c>
       <c r="W15">
         <v>4.2799999999999998E-2</v>
@@ -8769,19 +8832,19 @@
         <v>0.99819999999999998</v>
       </c>
       <c r="C19">
-        <v>0.90459999999999996</v>
+        <v>0.90439999999999998</v>
       </c>
       <c r="D19">
-        <v>0.8952</v>
+        <v>0.89559999999999995</v>
       </c>
       <c r="E19">
-        <v>0.89459999999999995</v>
+        <v>0.89419999999999999</v>
       </c>
       <c r="F19">
-        <v>0.89080000000000004</v>
+        <v>0.89059999999999995</v>
       </c>
       <c r="G19">
-        <v>0.89900000000000002</v>
+        <v>0.89880000000000004</v>
       </c>
       <c r="I19" t="s">
         <v>13</v>
@@ -8790,19 +8853,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.14E-2</v>
+        <v>8.1600000000000006E-2</v>
       </c>
       <c r="L19">
         <v>6.9400000000000003E-2</v>
       </c>
       <c r="M19">
-        <v>7.3400000000000007E-2</v>
+        <v>7.3800000000000004E-2</v>
       </c>
       <c r="N19">
-        <v>7.4800000000000005E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="O19">
-        <v>6.5799999999999997E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="Q19" t="s">
         <v>13</v>
@@ -8814,7 +8877,7 @@
         <v>1.4E-2</v>
       </c>
       <c r="T19">
-        <v>3.5400000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="U19">
         <v>3.2000000000000001E-2</v>
@@ -8831,10 +8894,10 @@
         <v>14</v>
       </c>
       <c r="B20">
-        <v>0.998</v>
+        <v>0.99819999999999998</v>
       </c>
       <c r="C20">
-        <v>0.90400000000000003</v>
+        <v>0.90359999999999996</v>
       </c>
       <c r="D20">
         <v>0.89600000000000002</v>
@@ -8846,7 +8909,7 @@
         <v>0.89159999999999995</v>
       </c>
       <c r="G20">
-        <v>0.89639999999999997</v>
+        <v>0.8962</v>
       </c>
       <c r="I20" t="s">
         <v>14</v>
@@ -8855,25 +8918,25 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.1600000000000006E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L20">
         <v>7.0199999999999999E-2</v>
       </c>
       <c r="M20">
-        <v>7.3999999999999996E-2</v>
+        <v>7.4200000000000002E-2</v>
       </c>
       <c r="N20">
         <v>7.4200000000000002E-2</v>
       </c>
       <c r="O20">
-        <v>6.7000000000000004E-2</v>
+        <v>6.7199999999999996E-2</v>
       </c>
       <c r="Q20" t="s">
         <v>14</v>
       </c>
       <c r="R20">
-        <v>2E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="S20">
         <v>1.44E-2</v>
@@ -8882,7 +8945,7 @@
         <v>3.3799999999999997E-2</v>
       </c>
       <c r="U20">
-        <v>3.1600000000000003E-2</v>
+        <v>3.1399999999999997E-2</v>
       </c>
       <c r="V20">
         <v>3.4200000000000001E-2</v>
@@ -8963,7 +9026,7 @@
         <v>13</v>
       </c>
       <c r="B24">
-        <v>0.99819999999999998</v>
+        <v>0.99839999999999995</v>
       </c>
       <c r="C24">
         <v>0.8982</v>
@@ -9005,7 +9068,7 @@
         <v>13</v>
       </c>
       <c r="R24">
-        <v>1.8E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="S24">
         <v>1.7600000000000001E-2</v>
@@ -9031,7 +9094,7 @@
         <v>0.998</v>
       </c>
       <c r="C25">
-        <v>0.89659999999999995</v>
+        <v>0.89680000000000004</v>
       </c>
       <c r="D25">
         <v>0.89439999999999997</v>
@@ -9040,7 +9103,7 @@
         <v>0.89380000000000004</v>
       </c>
       <c r="F25">
-        <v>0.89400000000000002</v>
+        <v>0.89380000000000004</v>
       </c>
       <c r="G25">
         <v>0.8982</v>
@@ -9052,7 +9115,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.4199999999999997E-2</v>
+        <v>8.4400000000000003E-2</v>
       </c>
       <c r="L25">
         <v>6.9400000000000003E-2</v>
@@ -9061,7 +9124,7 @@
         <v>6.8599999999999994E-2</v>
       </c>
       <c r="N25">
-        <v>6.8199999999999997E-2</v>
+        <v>6.8400000000000002E-2</v>
       </c>
       <c r="O25">
         <v>6.1600000000000002E-2</v>
@@ -9073,7 +9136,7 @@
         <v>2E-3</v>
       </c>
       <c r="S25">
-        <v>1.9199999999999998E-2</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="T25">
         <v>3.6200000000000003E-2</v>
@@ -9163,7 +9226,7 @@
         <v>0.99780000000000002</v>
       </c>
       <c r="C29">
-        <v>0.89580000000000004</v>
+        <v>0.89559999999999995</v>
       </c>
       <c r="D29">
         <v>0.89739999999999998</v>
@@ -9175,7 +9238,7 @@
         <v>0.89859999999999995</v>
       </c>
       <c r="G29">
-        <v>0.8962</v>
+        <v>0.89639999999999997</v>
       </c>
       <c r="I29" t="s">
         <v>13</v>
@@ -9184,7 +9247,7 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>8.4000000000000005E-2</v>
+        <v>8.4199999999999997E-2</v>
       </c>
       <c r="L29">
         <v>6.9199999999999998E-2</v>
@@ -9217,7 +9280,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="W29">
-        <v>3.9E-2</v>
+        <v>3.8800000000000001E-2</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
@@ -9228,19 +9291,19 @@
         <v>0.998</v>
       </c>
       <c r="C30">
-        <v>0.89459999999999995</v>
+        <v>0.89439999999999997</v>
       </c>
       <c r="D30">
-        <v>0.8982</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="E30">
         <v>0.89500000000000002</v>
       </c>
       <c r="F30">
-        <v>0.89759999999999995</v>
+        <v>0.89780000000000004</v>
       </c>
       <c r="G30">
-        <v>0.89639999999999997</v>
+        <v>0.89659999999999995</v>
       </c>
       <c r="I30" t="s">
         <v>14</v>
@@ -9249,10 +9312,10 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>8.4599999999999995E-2</v>
+        <v>8.48E-2</v>
       </c>
       <c r="L30">
-        <v>6.8000000000000005E-2</v>
+        <v>6.8199999999999997E-2</v>
       </c>
       <c r="M30">
         <v>6.4799999999999996E-2</v>
@@ -9279,10 +9342,10 @@
         <v>4.02E-2</v>
       </c>
       <c r="V30">
-        <v>3.5200000000000002E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="W30">
-        <v>4.02E-2</v>
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
@@ -10842,7 +10905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710D0E45-FBE7-4342-BF9A-FFD10053C882}">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="125" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/simulation results/CI results.xlsx
+++ b/simulation results/CI results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xijuan/local-fit-indices2/simulation results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E008EA4A-527A-5041-AF94-543192AAAE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF37A1B2-4782-3841-961A-4886D38026A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-200" yWindow="880" windowWidth="27640" windowHeight="16940" activeTab="5" xr2:uid="{98DFA7B3-F062-B349-9182-48BD3FB1DF62}"/>
+    <workbookView xWindow="920" yWindow="1300" windowWidth="31420" windowHeight="19320" xr2:uid="{98DFA7B3-F062-B349-9182-48BD3FB1DF62}"/>
   </bookViews>
   <sheets>
     <sheet name="RMSEA orig" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="CFI high" sheetId="6" r:id="rId6"/>
     <sheet name="SRMR orig check values" sheetId="7" r:id="rId7"/>
     <sheet name="SRMR high check values" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId9"/>
+    <sheet name="Sheet4" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2547" uniqueCount="50">
   <si>
     <t>$n150</t>
   </si>
@@ -185,11 +187,23 @@
   <si>
     <t>0.0556    0.0482    0.0568</t>
   </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">path.mod3  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">h.mod3 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -199,12 +213,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -219,8 +239,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,14 +561,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FA8ABE-56A6-624F-AD7E-E09DC5A56F8D}">
   <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="9" max="9" width="26.1640625" customWidth="1"/>
+    <col min="13" max="13" width="23.83203125" customWidth="1"/>
     <col min="17" max="17" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -821,265 +846,265 @@
         <v>6.0679610000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T9" t="s">
+      <c r="T9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="U9" t="s">
+      <c r="U9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="V9" t="s">
+      <c r="V9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="W9" t="s">
+      <c r="W9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>0.1225728</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>0.1970065</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>0.35194170000000002</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>0.37479770000000001</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>0.34789639999999999</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>0.37378640000000002</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>0.87661811999999995</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <v>0.80157767000000002</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="1">
         <v>0.60760517999999997</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="1">
         <v>0.62580910000000001</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="1">
         <v>0.57139967999999997</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="1">
         <v>8.0906149999999998E-4</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="1">
         <v>1.4158580000000001E-3</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="1">
         <v>4.0453070000000001E-2</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="1">
         <v>4.2677989999999999E-2</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="1">
         <v>2.6294499999999998E-2</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="1">
         <v>5.4813920000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>0.84122169999999996</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>0.85396439999999996</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>0.82423139999999995</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>0.83131069999999996</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>0.84203070000000002</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>0.82301780000000002</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>9.9919090000000002E-2</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="1">
         <v>8.6569579999999993E-2</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="1">
         <v>0.12176375</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="1">
         <v>0.1102346</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="1">
         <v>0.12014563</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="1">
         <v>5.8859223299999999E-2</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="1">
         <v>5.9466019000000002E-2</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="1">
         <v>5.400485E-2</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="1">
         <v>4.9352750000000001E-2</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="1">
         <v>4.773463E-2</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="1">
         <v>5.6836570000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>0.8559871</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>0.87014559999999996</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>0.85376209999999997</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>0.86124599999999996</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>0.86974110000000004</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>0.8487055</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>7.5040449999999995E-2</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="1">
         <v>6.1488670000000002E-2</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="1">
         <v>8.8389969999999998E-2</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="1">
         <v>7.3017799999999994E-2</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="1">
         <v>8.6569579999999993E-2</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="1">
         <v>6.8972491900000002E-2</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="1">
         <v>6.8365696000000004E-2</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="1">
         <v>5.7847900000000001E-2</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="1">
         <v>5.2588999999999997E-2</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="1">
         <v>5.2993529999999997E-2</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="1">
         <v>6.0679610000000002E-2</v>
       </c>
     </row>
@@ -1345,265 +1370,265 @@
         <v>5.5066080000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="Q20" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="21" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R21" t="s">
+      <c r="R21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S21" t="s">
+      <c r="S21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="T21" t="s">
+      <c r="T21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U21" t="s">
+      <c r="U21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="V21" t="s">
+      <c r="V21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="W21" t="s">
+      <c r="W21" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>0.15079999999999999</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>0.34960000000000002</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>0.47539999999999999</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>0.48060000000000003</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>0.47039999999999998</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
         <v>0.4698</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="2">
         <v>0.8478</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="2">
         <v>0.63719999999999999</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="2">
         <v>0.437</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="2">
         <v>0.45019999999999999</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="2">
         <v>0.41439999999999999</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="Q22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="2">
         <v>1.4E-3</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="2">
         <v>1.32E-2</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="2">
         <v>8.7599999999999997E-2</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="2">
         <v>9.7199999999999995E-2</v>
       </c>
-      <c r="V22">
+      <c r="V22" s="2">
         <v>7.9399999999999998E-2</v>
       </c>
-      <c r="W22">
+      <c r="W22" s="2">
         <v>0.1158</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>0.87680000000000002</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>0.8952</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>0.87360000000000004</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>0.86419999999999997</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <v>0.88980000000000004</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="2">
         <v>0.85680000000000001</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="2">
         <v>6.8599999999999994E-2</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="2">
         <v>5.0599999999999999E-2</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="2">
         <v>7.3400000000000007E-2</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="2">
         <v>6.08E-2</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="2">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="Q23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="2">
         <v>5.4600000000000003E-2</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="2">
         <v>5.4199999999999998E-2</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="2">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="2">
         <v>5.4199999999999998E-2</v>
       </c>
-      <c r="V23">
+      <c r="V23" s="2">
         <v>4.9399999999999999E-2</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="2">
         <v>6.0199999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>0.88480000000000003</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>0.90400000000000003</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>0.88660000000000005</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>0.88480000000000003</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>0.90280000000000005</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="2">
         <v>0.87880000000000003</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="2">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="2">
         <v>3.8199999999999998E-2</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="2">
         <v>6.0199999999999997E-2</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="2">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="Q24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="2">
         <v>5.7200000000000001E-2</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="2">
         <v>5.7799999999999997E-2</v>
       </c>
-      <c r="T24">
+      <c r="T24" s="2">
         <v>5.3199999999999997E-2</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="2">
         <v>5.3600000000000002E-2</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="2">
         <v>0.05</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="2">
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
@@ -2129,6 +2154,2844 @@
       </c>
       <c r="W36">
         <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE27D3B-AFD0-D445-857E-35BECF7F7620}">
+  <dimension ref="A1:X55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50:X50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="3"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.87661811999999995</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.80157767000000002</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.60760517999999997</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.58252426999999996</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.62580910000000001</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.57139967999999997</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="3">
+        <v>8.0906149999999998E-4</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1.4158580000000001E-3</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3" s="3">
+        <v>4.0453070000000001E-2</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T3" s="3">
+        <v>4.2677989999999999E-2</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" s="3">
+        <v>2.6294499999999998E-2</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X3" s="3">
+        <v>5.4813920000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3">
+        <v>9.9919090000000002E-2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="3">
+        <v>8.6569579999999993E-2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.12176375</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.11933657</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.1102346</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.12014563</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="3">
+        <v>5.8859223299999999E-2</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="3">
+        <v>5.9466019000000002E-2</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="3">
+        <v>5.400485E-2</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T4" s="3">
+        <v>4.9352750000000001E-2</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V4" s="3">
+        <v>4.773463E-2</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X4" s="3">
+        <v>5.6836570000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3">
+        <v>7.5040449999999995E-2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="3">
+        <v>6.1488670000000002E-2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="3">
+        <v>8.8389969999999998E-2</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="3">
+        <v>8.6165050000000007E-2</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="3">
+        <v>7.3017799999999994E-2</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="3">
+        <v>8.6569579999999993E-2</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="3">
+        <v>6.8972491900000002E-2</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="3">
+        <v>6.8365696000000004E-2</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="3">
+        <v>5.7847900000000001E-2</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T5" s="3">
+        <v>5.2588999999999997E-2</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V5" s="3">
+        <v>5.2993529999999997E-2</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X5" s="3">
+        <v>6.0679610000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="4">
+        <v>5.0161810000000001E-2</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="4">
+        <v>8.3737859999999997E-2</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="4">
+        <v>5.5016179999999998E-2</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="4">
+        <v>8.8996759999999994E-2</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="4">
+        <v>2.022654E-3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P12" s="4">
+        <v>7.0792880000000004E-3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R12" s="4">
+        <v>1.254045E-2</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T12" s="4">
+        <v>2.0226540000000001E-2</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V12" s="4">
+        <v>1.8608409999999999E-2</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X12" s="4">
+        <v>2.5687700000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="4">
+        <v>4.9555019999999998E-2</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="4">
+        <v>9.2637540000000004E-2</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="4">
+        <v>5.1982199999999999E-2</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0.10133494999999999</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1.820388E-3</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P13" s="4">
+        <v>5.6634299999999997E-3</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R13" s="4">
+        <v>1.213592E-2</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T13" s="4">
+        <v>2.0833330000000001E-2</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V13" s="4">
+        <v>1.7597089999999999E-2</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X13" s="4">
+        <v>2.4676380000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X20" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.88248382000000003</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.55117313999999995</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.40149676400000001</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.31957929000000002</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.344457929</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0.31533171500000001</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P21" s="4">
+        <v>1.0315533999999999E-2</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R21" s="4">
+        <v>4.4093849999999997E-2</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T21" s="4">
+        <v>7.9085760000000005E-2</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V21" s="4">
+        <v>6.5533980000000006E-2</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X21" s="4">
+        <v>8.8996759999999994E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.12702264999999999</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="4">
+        <v>3.4991910000000001E-2</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1.881068E-2</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="4">
+        <v>2.0833330000000001E-2</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" s="4">
+        <v>2.2653722000000001E-2</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L22" s="4">
+        <v>2.1035598999999999E-2</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P22" s="4">
+        <v>2.2249190000000001E-3</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R22" s="4">
+        <v>6.4724920000000005E-2</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T22" s="4">
+        <v>8.3333329999999997E-2</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V22" s="4">
+        <v>8.4546930000000006E-2</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X22" s="4">
+        <v>7.1601940000000003E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="4">
+        <v>5.8252430000000001E-2</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1.4563110000000001E-2</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="4">
+        <v>6.6747569999999999E-3</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="4">
+        <v>5.2589000000000004E-3</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" s="4">
+        <v>7.4838190000000001E-3</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23" s="4">
+        <v>4.4498380000000002E-3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P23" s="4">
+        <v>2.4271840000000002E-3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R23" s="4">
+        <v>3.7014560000000002E-2</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T23" s="4">
+        <v>7.645631E-2</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V23" s="4">
+        <v>6.8972489999999997E-2</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X23" s="4">
+        <v>7.2613269999999994E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W30" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X31" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.8478</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.63719999999999999</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0.437</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0.42220000000000002</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0.45019999999999999</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0.41439999999999999</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N32" s="4">
+        <v>1.4E-3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P32" s="4">
+        <v>1.32E-2</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R32" s="4">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T32" s="4">
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V32" s="4">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X32" s="4">
+        <v>0.1158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="4">
+        <v>6.8599999999999994E-2</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="4">
+        <v>5.0599999999999999E-2</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="4">
+        <v>7.3400000000000007E-2</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33" s="4">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J33" s="4">
+        <v>6.08E-2</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L33" s="4">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N33" s="4">
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P33" s="4">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R33" s="4">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T33" s="4">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="4">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X33" s="4">
+        <v>6.0199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="4">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="4">
+        <v>3.8199999999999998E-2</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="4">
+        <v>6.0199999999999997E-2</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H34" s="4">
+        <v>6.1600000000000002E-2</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J34" s="4">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L34" s="4">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N34" s="4">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P34" s="4">
+        <v>5.7799999999999997E-2</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R34" s="4">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T34" s="4">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V34" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="W34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X34" s="4">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W36" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W37" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W38" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X39" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="4">
+        <v>2E-3</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" s="4">
+        <v>8.6400000000000005E-2</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J40" s="4">
+        <v>8.9800000000000005E-2</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L40" s="4">
+        <v>9.0200000000000002E-2</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N40" s="4">
+        <v>2E-3</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P40" s="4">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R40" s="4">
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T40" s="4">
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="U40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V40" s="4">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="W40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X40" s="4">
+        <v>3.0800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="4">
+        <v>2E-3</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" s="4">
+        <v>9.2600000000000002E-2</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41" s="4">
+        <v>8.9599999999999999E-2</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J41" s="4">
+        <v>9.4399999999999998E-2</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L41" s="4">
+        <v>9.2600000000000002E-2</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N41" s="4">
+        <v>1.8E-3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P41" s="4">
+        <v>7.6E-3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R41" s="4">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T41" s="4">
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V41" s="4">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X41" s="4">
+        <v>3.0200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W44" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X47" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0.39660000000000001</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0.29720000000000002</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0.27479999999999999</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J48" s="4">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L48" s="4">
+        <v>0.27939999999999998</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N48" s="4">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P48" s="4">
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R48" s="4">
+        <v>8.8800000000000004E-2</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T48" s="4">
+        <v>0.12640000000000001</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V48" s="4">
+        <v>0.12379999999999999</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X48" s="4">
+        <v>0.1462</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0.12559999999999999</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49" s="4">
+        <v>2.64E-2</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H49" s="4">
+        <v>2.4E-2</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J49" s="4">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L49" s="4">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N49" s="4">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P49" s="4">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R49" s="4">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T49" s="4">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V49" s="4">
+        <v>5.8400000000000001E-2</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X49" s="4">
+        <v>5.5199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0.1016</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="4">
+        <v>2.86E-2</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H50" s="4">
+        <v>1.26E-2</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J50" s="4">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L50" s="4">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N50" s="4">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P50" s="4">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R50" s="4">
+        <v>4.7E-2</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T50" s="4">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="U50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V50" s="4">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="W50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X50" s="4">
+        <v>4.7199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C51" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S51" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U51" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W51" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C52" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C53" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q53" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S53" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U53" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W53" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C54" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W54" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C55" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q55" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S55" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U55" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W55" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2140,8 +5003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C0D6F3-DF56-CB4B-8B63-EE9A098F541C}">
   <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:W36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3742,8 +6605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7461B5-2DD4-5448-A167-FD7595772993}">
   <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:W36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20:W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5341,7 +8204,7 @@
   <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:W36"/>
+      <selection activeCell="B22" sqref="B22:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6939,7 +9802,7 @@
   <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:W30"/>
+      <selection activeCell="I17" sqref="I17:W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8146,8 +11009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02ADD9EF-6BBF-E642-86B1-D69169E4380E}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12447,4 +15310,2413 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDD9181-583A-B846-AD69-DDC39522961B}">
+  <dimension ref="A1:X46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:X46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.1225728</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.1970065</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.35194170000000002</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.37479770000000001</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.34789639999999999</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.37378640000000002</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.71779999999999999</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0.74260000000000004</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T3" s="4">
+        <v>0.74419999999999997</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" s="4">
+        <v>0.74580000000000002</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X3" s="4">
+        <v>0.75180000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.84122169999999996</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.85396439999999996</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.82423139999999995</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.83131069999999996</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.84203070000000002</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.82301780000000002</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0.88739999999999997</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T4" s="4">
+        <v>0.89780000000000004</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V4" s="4">
+        <v>0.89419999999999999</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X4" s="4">
+        <v>0.89280000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.8559871</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.87014559999999996</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.85376209999999997</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.86124599999999996</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.86974110000000004</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.8487055</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.88580000000000003</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.90780000000000005</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0.88519999999999999</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T5" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X5" s="4">
+        <v>0.89900000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.99797729999999996</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.99292069999999999</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.93729770000000001</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.89603560000000004</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.92637539999999996</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0.88531550000000003</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0.99480000000000002</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0.98540000000000005</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0.87919999999999998</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T12" s="4">
+        <v>0.88219999999999998</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V12" s="4">
+        <v>0.88660000000000005</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X12" s="4">
+        <v>0.87919999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.99817959999999994</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.99433660000000001</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.93830910000000001</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.88652909999999996</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.93042069999999999</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0.87398869999999995</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0.99539999999999995</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0.87660000000000005</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T13" s="4">
+        <v>0.87639999999999996</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0.87839999999999996</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X13" s="4">
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.1175162</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.43851129999999999</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.55440940000000005</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.60133499999999995</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.59000810000000004</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0.59567150000000002</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0.8488</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T19" s="4">
+        <v>0.8266</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V19" s="4">
+        <v>0.83720000000000006</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X19" s="4">
+        <v>0.82679999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.87297729999999996</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.96278319999999995</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.91646439999999996</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.89583330000000005</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.89279940000000002</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0.90736249999999996</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0.87080000000000002</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0.95420000000000005</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0.91720000000000002</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T20" s="4">
+        <v>0.92020000000000002</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V20" s="4">
+        <v>0.9224</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X20" s="4">
+        <v>0.92300000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.94174760000000002</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.98300969999999999</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.95631069999999996</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.91828480000000001</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.92354369999999997</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0.92293689999999995</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0.87260000000000004</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P21" s="4">
+        <v>0.95679999999999998</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R21" s="4">
+        <v>0.92220000000000002</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T21" s="4">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V21" s="4">
+        <v>0.92279999999999995</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X21" s="4">
+        <v>0.92859999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.15079999999999999</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.34960000000000002</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.47539999999999999</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0.48060000000000003</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0.47039999999999998</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0.4698</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P28" s="4">
+        <v>0.76559999999999995</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R28" s="4">
+        <v>0.7712</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T28" s="4">
+        <v>0.77159999999999995</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V28" s="4">
+        <v>0.77180000000000004</v>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X28" s="4">
+        <v>0.77400000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.87680000000000002</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.8952</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.87360000000000004</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0.88980000000000004</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0.85680000000000001</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0.89780000000000004</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P29" s="4">
+        <v>0.91020000000000001</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R29" s="4">
+        <v>0.89759999999999995</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T29" s="4">
+        <v>0.90439999999999998</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V29" s="4">
+        <v>0.90839999999999999</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X29" s="4">
+        <v>0.90539999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.88480000000000003</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.88660000000000005</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0.88480000000000003</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0.90280000000000005</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0.87880000000000003</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0.9002</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P30" s="4">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R30" s="4">
+        <v>0.90059999999999996</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T30" s="4">
+        <v>0.90920000000000001</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V30" s="4">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="W30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X30" s="4">
+        <v>0.90959999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W34" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0.998</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0.99019999999999997</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0.89180000000000004</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0.88619999999999999</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0.88680000000000003</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L36" s="4">
+        <v>0.879</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N36" s="4">
+        <v>0.99480000000000002</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P36" s="4">
+        <v>0.98540000000000005</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R36" s="4">
+        <v>0.87919999999999998</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T36" s="4">
+        <v>0.88219999999999998</v>
+      </c>
+      <c r="U36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V36" s="4">
+        <v>0.88660000000000005</v>
+      </c>
+      <c r="W36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X36" s="4">
+        <v>0.87919999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0.88939999999999997</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0.88419999999999999</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L37" s="4">
+        <v>0.87719999999999998</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N37" s="4">
+        <v>0.99539999999999995</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P37" s="4">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R37" s="4">
+        <v>0.87660000000000005</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T37" s="4">
+        <v>0.87639999999999996</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V37" s="4">
+        <v>0.87839999999999996</v>
+      </c>
+      <c r="W37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X37" s="4">
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W38" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W39" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W40" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0.1186</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0.55659999999999998</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0.5988</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0.59819999999999995</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L44" s="4">
+        <v>0.57440000000000002</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N44" s="4">
+        <v>0.57920000000000005</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P44" s="4">
+        <v>0.78720000000000001</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R44" s="4">
+        <v>0.84179999999999999</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T44" s="4">
+        <v>0.81440000000000001</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V44" s="4">
+        <v>0.82040000000000002</v>
+      </c>
+      <c r="W44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X44" s="4">
+        <v>0.81459999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0.87439999999999996</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0.92120000000000002</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0.92359999999999998</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0.91279999999999994</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L45" s="4">
+        <v>0.9204</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N45" s="4">
+        <v>0.86819999999999997</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P45" s="4">
+        <v>0.87180000000000002</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R45" s="4">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T45" s="4">
+        <v>0.91779999999999995</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V45" s="4">
+        <v>0.91459999999999997</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X45" s="4">
+        <v>0.91859999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0.96560000000000001</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0.93940000000000001</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0.94220000000000004</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0.93240000000000001</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L46" s="4">
+        <v>0.93979999999999997</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N46" s="4">
+        <v>0.87260000000000004</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P46" s="4">
+        <v>0.877</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R46" s="4">
+        <v>0.92720000000000002</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T46" s="4">
+        <v>0.92359999999999998</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V46" s="4">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X46" s="4">
+        <v>0.92679999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>